--- a/확률과 통계 데이터 분석.xlsx
+++ b/확률과 통계 데이터 분석.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\MapleStory_Probability_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>오가닉 원더 쿠키 (10개)</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -234,6 +234,109 @@
   </si>
   <si>
     <t>위습의 원더베리 (루나크리스탈:드림)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[스페셜 라벨] 플레임 크라운</t>
+  </si>
+  <si>
+    <t>[스페셜 라벨] 이그니스</t>
+  </si>
+  <si>
+    <t>[스페셜 라벨] 플레임 서클</t>
+  </si>
+  <si>
+    <t>[스페셜 라벨] 이그나이트</t>
+  </si>
+  <si>
+    <t>[스페셜 라벨] 플레임 워크</t>
+  </si>
+  <si>
+    <t>폼폼 베어</t>
+  </si>
+  <si>
+    <t>윈터 라벤더</t>
+  </si>
+  <si>
+    <t>부들 라벤더 후디 (남) / 부들 핑크 후디 (여)</t>
+  </si>
+  <si>
+    <t>핑크빈 허그 쿠션</t>
+  </si>
+  <si>
+    <t>라벤더 스니커즈</t>
+  </si>
+  <si>
+    <t>단호한 철퇴 캡</t>
+  </si>
+  <si>
+    <t>단호한 철퇴 제복 (남) / 단호한 철퇴 제복 (여)</t>
+  </si>
+  <si>
+    <t>단호한 철퇴</t>
+  </si>
+  <si>
+    <t>단호한 철퇴 구두 (남) / 단호한 철퇴 구두 (여)</t>
+  </si>
+  <si>
+    <t>마나 폭주</t>
+  </si>
+  <si>
+    <t>핫핑크 멜빵바지</t>
+  </si>
+  <si>
+    <t>밀키 레인보우</t>
+  </si>
+  <si>
+    <t>핑크 몽몽 리본</t>
+  </si>
+  <si>
+    <t>순금 태엽인형</t>
+  </si>
+  <si>
+    <t>무지개 홍조</t>
+  </si>
+  <si>
+    <t>꽥꽥 오리야</t>
+  </si>
+  <si>
+    <t>[30일]꽥꽥 오리 말풍선반지 교환권</t>
+  </si>
+  <si>
+    <t>[30일]꽥꽥 오리 명찰반지 교환권</t>
+  </si>
+  <si>
+    <t>이불밖은 위험해!</t>
+  </si>
+  <si>
+    <t>스카우터</t>
+  </si>
+  <si>
+    <t>로얄 스타일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폐셜 라벨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 라벨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀 코디 아이템</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 코디 아이템</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -368,14 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="맑은 고딕"/>
@@ -391,8 +486,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,8 +556,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -554,6 +662,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCFD8E7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCFD8E7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCFD8E7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCFD8E7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCFD8E7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCFD8E7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCFD8E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCFD8E7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCFD8E7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,111 +744,162 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -703,11 +917,12 @@
   <colors>
     <mruColors>
       <color rgb="FFFFFF66"/>
+      <color rgb="FFFBFF57"/>
+      <color rgb="FFF9F9F9"/>
       <color rgb="FF6600CC"/>
       <color rgb="FFCC00FF"/>
       <color rgb="FFF9FF01"/>
       <color rgb="FF6F0CF2"/>
-      <color rgb="FFFBFF57"/>
       <color rgb="FF26012D"/>
     </mruColors>
   </colors>
@@ -985,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -999,659 +1214,657 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="13">
+      <c r="B2" s="18"/>
+      <c r="C2" s="28">
         <v>0.3004</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="15">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="6">
         <v>0.156</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="5">
         <v>7881</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="3">
         <v>7830</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="3">
         <v>7942</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="3">
         <v>7766</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="3">
         <v>7825</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="3">
         <v>7829</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="3">
         <v>7814</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="3">
         <v>7745</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="3">
         <v>7704</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="3">
         <v>7846</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="8">
         <f t="shared" ref="T2:T11" si="0">SUM(J2:S2)</f>
         <v>78182</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="3">
         <v>5000</v>
       </c>
-      <c r="V2" s="19">
+      <c r="V2" s="7">
         <f>T2/U2</f>
         <v>15.6364</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="15">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="6">
         <v>0.1444</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="5">
         <v>7189</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="3">
         <v>7144</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="3">
         <v>7193</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="3">
         <v>7294</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="3">
         <v>7170</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="3">
         <v>7232</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="3">
         <v>7143</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="3">
         <v>7313</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="3">
         <v>7041</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="3">
         <v>7159</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="8">
         <f t="shared" si="0"/>
         <v>71878</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="3">
         <v>5000</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3" s="7">
         <f t="shared" ref="V3:V11" si="1">T3/U3</f>
         <v>14.3756</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="14">
+      <c r="B4" s="18"/>
+      <c r="C4" s="29">
         <v>0.6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="15">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="6">
         <v>0.108</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="5">
         <v>5403</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="3">
         <v>5518</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="3">
         <v>5369</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="3">
         <v>5353</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="3">
         <v>5340</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="3">
         <v>5449</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="3">
         <v>5466</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="3">
         <v>5420</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="3">
         <v>5378</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="3">
         <v>5444</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="8">
         <f t="shared" si="0"/>
         <v>54140</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="3">
         <v>5000</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="7">
         <f t="shared" si="1"/>
         <v>10.827999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="6" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="15">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="6">
         <v>0.108</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="5">
         <v>5398</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="3">
         <v>5362</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="3">
         <v>5465</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="3">
         <v>5436</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="3">
         <v>5284</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="3">
         <v>5354</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="3">
         <v>5452</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="3">
         <v>5377</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="3">
         <v>5475</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="3">
         <v>5396</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="8">
         <f t="shared" si="0"/>
         <v>53999</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="3">
         <v>5000</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="7">
         <f t="shared" si="1"/>
         <v>10.799799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="15">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="6">
         <v>0.108</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="5">
         <v>5323</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="3">
         <v>5440</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="3">
         <v>5309</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="3">
         <v>5487</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="3">
         <v>5501</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="3">
         <v>5363</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="3">
         <v>5389</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="3">
         <v>5449</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="3">
         <v>5494</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="3">
         <v>5525</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="8">
         <f t="shared" si="0"/>
         <v>54280</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="3">
         <v>5000</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="7">
         <f t="shared" si="1"/>
         <v>10.856</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="6" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="15">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="6">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="5">
         <v>6937</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="3">
         <v>6933</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="3">
         <v>6872</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="3">
         <v>6884</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="3">
         <v>6998</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="3">
         <v>6946</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="3">
         <v>6983</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="3">
         <v>6908</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="3">
         <v>6861</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="3">
         <v>6856</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="8">
         <f t="shared" si="0"/>
         <v>69178</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="3">
         <v>5000</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="7">
         <f t="shared" si="1"/>
         <v>13.835599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="15">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="6">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="5">
         <v>6886</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="3">
         <v>6891</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="3">
         <v>6955</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="3">
         <v>6772</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="3">
         <v>6913</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="3">
         <v>6886</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="3">
         <v>6827</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="3">
         <v>6929</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="3">
         <v>6984</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="3">
         <v>6815</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="8">
         <f t="shared" si="0"/>
         <v>68858</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="3">
         <v>5000</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="7">
         <f t="shared" si="1"/>
         <v>13.771599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13">
+      <c r="B9" s="18"/>
+      <c r="C9" s="28">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="15">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="6">
         <v>3.32E-2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="5">
         <v>1704</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="3">
         <v>1625</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="3">
         <v>1678</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="3">
         <v>1672</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="3">
         <v>1636</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="3">
         <v>1677</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="3">
         <v>1595</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="3">
         <v>1609</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="3">
         <v>1667</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="3">
         <v>1664</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="8">
         <f t="shared" si="0"/>
         <v>16527</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="3">
         <v>5000</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="7">
         <f t="shared" si="1"/>
         <v>3.3054000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="15">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="6">
         <v>3.32E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="5">
         <v>1608</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="3">
         <v>1632</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="3">
         <v>1618</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="3">
         <v>1705</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="3">
         <v>1635</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="3">
         <v>1625</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="3">
         <v>1592</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="3">
         <v>1581</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="3">
         <v>1689</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="3">
         <v>1626</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="8">
         <f t="shared" si="0"/>
         <v>16311</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="3">
         <v>5000</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="7">
         <f t="shared" si="1"/>
         <v>3.2622</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="15">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="6">
         <v>3.32E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="5">
         <v>1671</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="3">
         <v>1625</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="3">
         <v>1599</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="3">
         <v>1631</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="3">
         <v>1698</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="3">
         <v>1639</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="3">
         <v>1739</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="3">
         <v>1669</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="3">
         <v>1707</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="3">
         <v>1669</v>
       </c>
-      <c r="T11" s="21">
+      <c r="T11" s="8">
         <f t="shared" si="0"/>
         <v>16647</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="3">
         <v>5000</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="7">
         <f t="shared" si="1"/>
         <v>3.3294000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="4">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="2">
         <f t="shared" ref="I12:T12" si="2">SUM(I2:I11)</f>
         <v>1</v>
       </c>
@@ -1705,823 +1918,823 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="V16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="23">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19">
         <v>0.86399999999999999</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="33">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="10">
         <v>9600</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="10">
         <v>9483</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="3">
         <v>9409</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="10">
         <v>9704</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="10">
         <v>9597</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="10">
         <v>9503</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="10">
         <v>9718</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="10">
         <v>9540</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="10">
         <v>9475</v>
       </c>
-      <c r="S17" s="32">
+      <c r="S17" s="10">
         <v>9585</v>
       </c>
-      <c r="T17" s="34">
+      <c r="T17" s="12">
         <f>SUM(J17:S17)</f>
         <v>95614</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="3">
         <v>10000</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V17" s="7">
         <f>T17/U17</f>
         <v>9.5614000000000008</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="33">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="10">
         <v>9529</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="10">
         <v>9466</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="10">
         <v>9519</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="10">
         <v>9772</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="10">
         <v>9710</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="10">
         <v>9542</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="10">
         <v>9448</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="10">
         <v>9599</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="10">
         <v>9582</v>
       </c>
-      <c r="S18" s="32">
+      <c r="S18" s="10">
         <v>9675</v>
       </c>
-      <c r="T18" s="34">
+      <c r="T18" s="12">
         <f t="shared" ref="T18:T28" si="3">SUM(J18:S18)</f>
         <v>95842</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="3">
         <v>10000</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="7">
         <f t="shared" ref="V18:V29" si="4">T18/U18</f>
         <v>9.5841999999999992</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="2" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="33">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="10">
         <v>9673</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="10">
         <v>9667</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="10">
         <v>9648</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="10">
         <v>9539</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="10">
         <v>9615</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="10">
         <v>9707</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="10">
         <v>9689</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="10">
         <v>9598</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="10">
         <v>9635</v>
       </c>
-      <c r="S19" s="32">
+      <c r="S19" s="10">
         <v>9607</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19" s="12">
         <f t="shared" si="3"/>
         <v>96378</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="3">
         <v>10000</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V19" s="7">
         <f t="shared" si="4"/>
         <v>9.6378000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="33">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="10">
         <v>9507</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="10">
         <v>9701</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="10">
         <v>9508</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="10">
         <v>9465</v>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="10">
         <v>9510</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="10">
         <v>9493</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="10">
         <v>9579</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="10">
         <v>9537</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="10">
         <v>9810</v>
       </c>
-      <c r="S20" s="32">
+      <c r="S20" s="10">
         <v>9698</v>
       </c>
-      <c r="T20" s="34">
+      <c r="T20" s="12">
         <f t="shared" si="3"/>
         <v>95808</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="3">
         <v>10000</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="7">
         <f t="shared" si="4"/>
         <v>9.5808</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="2" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="33">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="10">
         <v>9645</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="10">
         <v>9628</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="10">
         <v>9615</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="10">
         <v>9648</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="10">
         <v>9488</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="10">
         <v>9503</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="10">
         <v>9371</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="10">
         <v>9520</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="10">
         <v>9599</v>
       </c>
-      <c r="S21" s="32">
+      <c r="S21" s="10">
         <v>9462</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21" s="12">
         <f t="shared" si="3"/>
         <v>95479</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="3">
         <v>10000</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="7">
         <f t="shared" si="4"/>
         <v>9.5479000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="33">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="10">
         <v>9544</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="10">
         <v>9507</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="10">
         <v>9622</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="10">
         <v>9537</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="10">
         <v>9551</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="10">
         <v>9667</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="10">
         <v>9610</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="10">
         <v>9618</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="10">
         <v>9656</v>
       </c>
-      <c r="S22" s="32">
+      <c r="S22" s="10">
         <v>9680</v>
       </c>
-      <c r="T22" s="34">
+      <c r="T22" s="12">
         <f t="shared" si="3"/>
         <v>95992</v>
       </c>
-      <c r="U22" s="10">
+      <c r="U22" s="3">
         <v>10000</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="7">
         <f t="shared" si="4"/>
         <v>9.5991999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="2" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="33">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="10">
         <v>9507</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="10">
         <v>9578</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="10">
         <v>9586</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="10">
         <v>9569</v>
       </c>
-      <c r="N23" s="32">
+      <c r="N23" s="10">
         <v>9702</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="10">
         <v>9739</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="10">
         <v>9517</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="10">
         <v>9601</v>
       </c>
-      <c r="R23" s="32">
+      <c r="R23" s="10">
         <v>9500</v>
       </c>
-      <c r="S23" s="32">
+      <c r="S23" s="10">
         <v>9566</v>
       </c>
-      <c r="T23" s="34">
+      <c r="T23" s="12">
         <f t="shared" si="3"/>
         <v>95865</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="3">
         <v>10000</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V23" s="7">
         <f t="shared" si="4"/>
         <v>9.5864999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="33">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="10">
         <v>9559</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="10">
         <v>9637</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="10">
         <v>9788</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="10">
         <v>9524</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="10">
         <v>9579</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="10">
         <v>9605</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="10">
         <v>9765</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="10">
         <v>9602</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="10">
         <v>9731</v>
       </c>
-      <c r="S24" s="32">
+      <c r="S24" s="10">
         <v>9621</v>
       </c>
-      <c r="T24" s="34">
+      <c r="T24" s="12">
         <f t="shared" si="3"/>
         <v>96411</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="3">
         <v>10000</v>
       </c>
-      <c r="V24" s="19">
+      <c r="V24" s="7">
         <f t="shared" si="4"/>
         <v>9.6410999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="2" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="33">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="10">
         <v>9772</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="10">
         <v>9673</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="10">
         <v>9599</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="10">
         <v>9615</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="10">
         <v>9671</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="10">
         <v>9543</v>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="10">
         <v>9623</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="10">
         <v>9584</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="10">
         <v>9543</v>
       </c>
-      <c r="S25" s="32">
+      <c r="S25" s="10">
         <v>9587</v>
       </c>
-      <c r="T25" s="34">
+      <c r="T25" s="12">
         <f t="shared" si="3"/>
         <v>96210</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U25" s="3">
         <v>10000</v>
       </c>
-      <c r="V25" s="19">
+      <c r="V25" s="7">
         <f t="shared" si="4"/>
         <v>9.6210000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="23">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19">
         <v>0.1164</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="33">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="11">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="10">
         <v>3904</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="10">
         <v>3849</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="10">
         <v>3987</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="10">
         <v>3869</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="10">
         <v>3786</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="10">
         <v>3782</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="10">
         <v>3985</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="10">
         <v>3858</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="10">
         <v>3808</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="10">
         <v>3775</v>
       </c>
-      <c r="T26" s="34">
+      <c r="T26" s="12">
         <f t="shared" si="3"/>
         <v>38603</v>
       </c>
-      <c r="U26" s="10">
+      <c r="U26" s="3">
         <v>10000</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="7">
         <f t="shared" si="4"/>
         <v>3.8603000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="3" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="33">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="11">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="10">
         <v>3922</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="10">
         <v>3915</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="10">
         <v>3871</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="10">
         <v>3886</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="10">
         <v>3894</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="10">
         <v>3893</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="10">
         <v>3836</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="10">
         <v>3979</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="10">
         <v>3792</v>
       </c>
-      <c r="S27" s="32">
+      <c r="S27" s="10">
         <v>3960</v>
       </c>
-      <c r="T27" s="34">
+      <c r="T27" s="12">
         <f t="shared" si="3"/>
         <v>38948</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U27" s="3">
         <v>10000</v>
       </c>
-      <c r="V27" s="19">
+      <c r="V27" s="7">
         <f t="shared" si="4"/>
         <v>3.8948</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="3" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="33">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="11">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="10">
         <v>3869</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="10">
         <v>4036</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="10">
         <v>3872</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="10">
         <v>3956</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="10">
         <v>3927</v>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="10">
         <v>3979</v>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="10">
         <v>3874</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="10">
         <v>4000</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R28" s="10">
         <v>3937</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S28" s="10">
         <v>3855</v>
       </c>
-      <c r="T28" s="34">
+      <c r="T28" s="12">
         <f t="shared" si="3"/>
         <v>39305</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="3">
         <v>10000</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="7">
         <f t="shared" si="4"/>
         <v>3.9304999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="24">
+      <c r="B29" s="13"/>
+      <c r="C29" s="9">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="28" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="33">
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="11">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J29" s="10">
         <v>1969</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="10">
         <v>1860</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="10">
         <v>1976</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="10">
         <v>1916</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="10">
         <v>1970</v>
       </c>
-      <c r="O29" s="32">
+      <c r="O29" s="10">
         <v>2044</v>
       </c>
-      <c r="P29" s="32">
+      <c r="P29" s="10">
         <v>1985</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29" s="10">
         <v>1964</v>
       </c>
-      <c r="R29" s="32">
+      <c r="R29" s="10">
         <v>1932</v>
       </c>
-      <c r="S29" s="32">
+      <c r="S29" s="10">
         <v>1929</v>
       </c>
-      <c r="T29" s="34">
+      <c r="T29" s="12">
         <f>SUM(J29:S29)</f>
         <v>19545</v>
       </c>
-      <c r="U29" s="10">
+      <c r="U29" s="3">
         <v>10000</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="7">
         <f t="shared" si="4"/>
         <v>1.9544999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="4">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="2">
         <f>SUM(I17:I29)</f>
         <v>0.99999999999999967</v>
       </c>
@@ -2575,823 +2788,823 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="10" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="N34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="O34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="P34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="Q34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R34" s="10" t="s">
+      <c r="R34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S34" s="10" t="s">
+      <c r="S34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T34" s="10" t="s">
+      <c r="T34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U34" s="10" t="s">
+      <c r="U34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V34" s="10" t="s">
+      <c r="V34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="23">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="21"/>
+      <c r="F35" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="33">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J35" s="32">
+      <c r="J35" s="10">
         <v>8258</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="10">
         <v>8342</v>
       </c>
-      <c r="L35" s="32">
+      <c r="L35" s="10">
         <v>8456</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="10">
         <v>8518</v>
       </c>
-      <c r="N35" s="32">
+      <c r="N35" s="10">
         <v>8397</v>
       </c>
-      <c r="O35" s="32">
+      <c r="O35" s="10">
         <v>8382</v>
       </c>
-      <c r="P35" s="32">
+      <c r="P35" s="10">
         <v>8289</v>
       </c>
-      <c r="Q35" s="32">
+      <c r="Q35" s="10">
         <v>8460</v>
       </c>
-      <c r="R35" s="32">
+      <c r="R35" s="10">
         <v>8461</v>
       </c>
-      <c r="S35" s="32">
+      <c r="S35" s="10">
         <v>8272</v>
       </c>
-      <c r="T35" s="34">
+      <c r="T35" s="12">
         <f>SUM(J35:S35)</f>
         <v>83835</v>
       </c>
-      <c r="U35" s="10">
+      <c r="U35" s="3">
         <v>10000</v>
       </c>
-      <c r="V35" s="19">
+      <c r="V35" s="7">
         <f>T35/U35</f>
         <v>8.3834999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="2" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="33">
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J36" s="32">
+      <c r="J36" s="10">
         <v>8403</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="10">
         <v>8392</v>
       </c>
-      <c r="L36" s="32">
+      <c r="L36" s="10">
         <v>8430</v>
       </c>
-      <c r="M36" s="32">
+      <c r="M36" s="10">
         <v>8376</v>
       </c>
-      <c r="N36" s="32">
+      <c r="N36" s="10">
         <v>8236</v>
       </c>
-      <c r="O36" s="32">
+      <c r="O36" s="10">
         <v>8448</v>
       </c>
-      <c r="P36" s="32">
+      <c r="P36" s="10">
         <v>8372</v>
       </c>
-      <c r="Q36" s="32">
+      <c r="Q36" s="10">
         <v>8204</v>
       </c>
-      <c r="R36" s="32">
+      <c r="R36" s="10">
         <v>8344</v>
       </c>
-      <c r="S36" s="32">
+      <c r="S36" s="10">
         <v>8611</v>
       </c>
-      <c r="T36" s="34">
+      <c r="T36" s="12">
         <f t="shared" ref="T36:T46" si="6">SUM(J36:S36)</f>
         <v>83816</v>
       </c>
-      <c r="U36" s="10">
+      <c r="U36" s="3">
         <v>10000</v>
       </c>
-      <c r="V36" s="19">
+      <c r="V36" s="7">
         <f t="shared" ref="V36:V47" si="7">T36/U36</f>
         <v>8.3816000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="2" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="33">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J37" s="32">
+      <c r="J37" s="10">
         <v>8444</v>
       </c>
-      <c r="K37" s="32">
+      <c r="K37" s="10">
         <v>8447</v>
       </c>
-      <c r="L37" s="32">
+      <c r="L37" s="10">
         <v>8344</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="10">
         <v>8357</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="10">
         <v>8439</v>
       </c>
-      <c r="O37" s="32">
+      <c r="O37" s="10">
         <v>8354</v>
       </c>
-      <c r="P37" s="32">
+      <c r="P37" s="10">
         <v>8453</v>
       </c>
-      <c r="Q37" s="32">
+      <c r="Q37" s="10">
         <v>8533</v>
       </c>
-      <c r="R37" s="32">
+      <c r="R37" s="10">
         <v>8302</v>
       </c>
-      <c r="S37" s="32">
+      <c r="S37" s="10">
         <v>8371</v>
       </c>
-      <c r="T37" s="34">
+      <c r="T37" s="12">
         <f t="shared" si="6"/>
         <v>84044</v>
       </c>
-      <c r="U37" s="10">
+      <c r="U37" s="3">
         <v>10000</v>
       </c>
-      <c r="V37" s="19">
+      <c r="V37" s="7">
         <f t="shared" si="7"/>
         <v>8.4044000000000008</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="2" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="33">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="10">
         <v>8373</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="10">
         <v>8445</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="10">
         <v>8363</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M38" s="10">
         <v>8530</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="10">
         <v>8450</v>
       </c>
-      <c r="O38" s="32">
+      <c r="O38" s="10">
         <v>8486</v>
       </c>
-      <c r="P38" s="32">
+      <c r="P38" s="10">
         <v>8485</v>
       </c>
-      <c r="Q38" s="32">
+      <c r="Q38" s="10">
         <v>8462</v>
       </c>
-      <c r="R38" s="32">
+      <c r="R38" s="10">
         <v>8574</v>
       </c>
-      <c r="S38" s="32">
+      <c r="S38" s="10">
         <v>8260</v>
       </c>
-      <c r="T38" s="34">
+      <c r="T38" s="12">
         <f t="shared" si="6"/>
         <v>84428</v>
       </c>
-      <c r="U38" s="10">
+      <c r="U38" s="3">
         <v>10000</v>
       </c>
-      <c r="V38" s="19">
+      <c r="V38" s="7">
         <f t="shared" si="7"/>
         <v>8.4428000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="2" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="33">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J39" s="10">
         <v>8326</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K39" s="10">
         <v>8356</v>
       </c>
-      <c r="L39" s="32">
+      <c r="L39" s="10">
         <v>8357</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M39" s="10">
         <v>8339</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N39" s="10">
         <v>8325</v>
       </c>
-      <c r="O39" s="32">
+      <c r="O39" s="10">
         <v>8335</v>
       </c>
-      <c r="P39" s="32">
+      <c r="P39" s="10">
         <v>8402</v>
       </c>
-      <c r="Q39" s="32">
+      <c r="Q39" s="10">
         <v>8379</v>
       </c>
-      <c r="R39" s="32">
+      <c r="R39" s="10">
         <v>8526</v>
       </c>
-      <c r="S39" s="32">
+      <c r="S39" s="10">
         <v>8395</v>
       </c>
-      <c r="T39" s="34">
+      <c r="T39" s="12">
         <f t="shared" si="6"/>
         <v>83740</v>
       </c>
-      <c r="U39" s="10">
+      <c r="U39" s="3">
         <v>10000</v>
       </c>
-      <c r="V39" s="19">
+      <c r="V39" s="7">
         <f t="shared" si="7"/>
         <v>8.3740000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="2" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="33">
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J40" s="32">
+      <c r="J40" s="10">
         <v>8487</v>
       </c>
-      <c r="K40" s="32">
+      <c r="K40" s="10">
         <v>8349</v>
       </c>
-      <c r="L40" s="32">
+      <c r="L40" s="10">
         <v>8526</v>
       </c>
-      <c r="M40" s="32">
+      <c r="M40" s="10">
         <v>8233</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="10">
         <v>8307</v>
       </c>
-      <c r="O40" s="32">
+      <c r="O40" s="10">
         <v>8359</v>
       </c>
-      <c r="P40" s="32">
+      <c r="P40" s="10">
         <v>8428</v>
       </c>
-      <c r="Q40" s="32">
+      <c r="Q40" s="10">
         <v>8458</v>
       </c>
-      <c r="R40" s="32">
+      <c r="R40" s="10">
         <v>8451</v>
       </c>
-      <c r="S40" s="32">
+      <c r="S40" s="10">
         <v>8456</v>
       </c>
-      <c r="T40" s="34">
+      <c r="T40" s="12">
         <f t="shared" si="6"/>
         <v>84054</v>
       </c>
-      <c r="U40" s="10">
+      <c r="U40" s="3">
         <v>10000</v>
       </c>
-      <c r="V40" s="19">
+      <c r="V40" s="7">
         <f t="shared" si="7"/>
         <v>8.4054000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="2" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="33">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J41" s="32">
+      <c r="J41" s="10">
         <v>8318</v>
       </c>
-      <c r="K41" s="32">
+      <c r="K41" s="10">
         <v>8442</v>
       </c>
-      <c r="L41" s="32">
+      <c r="L41" s="10">
         <v>8387</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M41" s="10">
         <v>8386</v>
       </c>
-      <c r="N41" s="32">
+      <c r="N41" s="10">
         <v>8377</v>
       </c>
-      <c r="O41" s="32">
+      <c r="O41" s="10">
         <v>8441</v>
       </c>
-      <c r="P41" s="32">
+      <c r="P41" s="10">
         <v>8474</v>
       </c>
-      <c r="Q41" s="32">
+      <c r="Q41" s="10">
         <v>8434</v>
       </c>
-      <c r="R41" s="32">
+      <c r="R41" s="10">
         <v>8280</v>
       </c>
-      <c r="S41" s="32">
+      <c r="S41" s="10">
         <v>8439</v>
       </c>
-      <c r="T41" s="34">
+      <c r="T41" s="12">
         <f t="shared" si="6"/>
         <v>83978</v>
       </c>
-      <c r="U41" s="10">
+      <c r="U41" s="3">
         <v>10000</v>
       </c>
-      <c r="V41" s="19">
+      <c r="V41" s="7">
         <f t="shared" si="7"/>
         <v>8.3978000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="2" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="33">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J42" s="32">
+      <c r="J42" s="10">
         <v>8311</v>
       </c>
-      <c r="K42" s="32">
+      <c r="K42" s="10">
         <v>8353</v>
       </c>
-      <c r="L42" s="32">
+      <c r="L42" s="10">
         <v>8342</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="10">
         <v>8394</v>
       </c>
-      <c r="N42" s="32">
+      <c r="N42" s="10">
         <v>8390</v>
       </c>
-      <c r="O42" s="32">
+      <c r="O42" s="10">
         <v>8404</v>
       </c>
-      <c r="P42" s="32">
+      <c r="P42" s="10">
         <v>8386</v>
       </c>
-      <c r="Q42" s="32">
+      <c r="Q42" s="10">
         <v>8385</v>
       </c>
-      <c r="R42" s="32">
+      <c r="R42" s="10">
         <v>8392</v>
       </c>
-      <c r="S42" s="32">
+      <c r="S42" s="10">
         <v>8427</v>
       </c>
-      <c r="T42" s="34">
+      <c r="T42" s="12">
         <f t="shared" si="6"/>
         <v>83784</v>
       </c>
-      <c r="U42" s="10">
+      <c r="U42" s="3">
         <v>10000</v>
       </c>
-      <c r="V42" s="19">
+      <c r="V42" s="7">
         <f t="shared" si="7"/>
         <v>8.3783999999999992</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="2" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="33">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="J43" s="32">
+      <c r="J43" s="10">
         <v>8410</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="10">
         <v>8374</v>
       </c>
-      <c r="L43" s="32">
+      <c r="L43" s="10">
         <v>8440</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="10">
         <v>8510</v>
       </c>
-      <c r="N43" s="32">
+      <c r="N43" s="10">
         <v>8452</v>
       </c>
-      <c r="O43" s="32">
+      <c r="O43" s="10">
         <v>8407</v>
       </c>
-      <c r="P43" s="32">
+      <c r="P43" s="10">
         <v>8469</v>
       </c>
-      <c r="Q43" s="32">
+      <c r="Q43" s="10">
         <v>8260</v>
       </c>
-      <c r="R43" s="32">
+      <c r="R43" s="10">
         <v>8383</v>
       </c>
-      <c r="S43" s="32">
+      <c r="S43" s="10">
         <v>8394</v>
       </c>
-      <c r="T43" s="34">
+      <c r="T43" s="12">
         <f t="shared" si="6"/>
         <v>84099</v>
       </c>
-      <c r="U43" s="10">
+      <c r="U43" s="3">
         <v>10000</v>
       </c>
-      <c r="V43" s="19">
+      <c r="V43" s="7">
         <f t="shared" si="7"/>
         <v>8.4099000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="23">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19">
         <v>0.20399999999999999</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="33">
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J44" s="32">
+      <c r="J44" s="10">
         <v>6896</v>
       </c>
-      <c r="K44" s="32">
+      <c r="K44" s="10">
         <v>6755</v>
       </c>
-      <c r="L44" s="32">
+      <c r="L44" s="10">
         <v>6739</v>
       </c>
-      <c r="M44" s="32">
+      <c r="M44" s="10">
         <v>6849</v>
       </c>
-      <c r="N44" s="32">
+      <c r="N44" s="10">
         <v>6866</v>
       </c>
-      <c r="O44" s="32">
+      <c r="O44" s="10">
         <v>6695</v>
       </c>
-      <c r="P44" s="32">
+      <c r="P44" s="10">
         <v>6762</v>
       </c>
-      <c r="Q44" s="32">
+      <c r="Q44" s="10">
         <v>6774</v>
       </c>
-      <c r="R44" s="32">
+      <c r="R44" s="10">
         <v>6882</v>
       </c>
-      <c r="S44" s="32">
+      <c r="S44" s="10">
         <v>6817</v>
       </c>
-      <c r="T44" s="34">
+      <c r="T44" s="12">
         <f t="shared" si="6"/>
         <v>68035</v>
       </c>
-      <c r="U44" s="10">
+      <c r="U44" s="3">
         <v>10000</v>
       </c>
-      <c r="V44" s="19">
+      <c r="V44" s="7">
         <f t="shared" si="7"/>
         <v>6.8034999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="3" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="33">
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="10">
         <v>6929</v>
       </c>
-      <c r="K45" s="32">
+      <c r="K45" s="10">
         <v>6857</v>
       </c>
-      <c r="L45" s="32">
+      <c r="L45" s="10">
         <v>6759</v>
       </c>
-      <c r="M45" s="32">
+      <c r="M45" s="10">
         <v>6743</v>
       </c>
-      <c r="N45" s="32">
+      <c r="N45" s="10">
         <v>7028</v>
       </c>
-      <c r="O45" s="32">
+      <c r="O45" s="10">
         <v>6749</v>
       </c>
-      <c r="P45" s="32">
+      <c r="P45" s="10">
         <v>6745</v>
       </c>
-      <c r="Q45" s="32">
+      <c r="Q45" s="10">
         <v>6794</v>
       </c>
-      <c r="R45" s="32">
+      <c r="R45" s="10">
         <v>6822</v>
       </c>
-      <c r="S45" s="32">
+      <c r="S45" s="10">
         <v>6828</v>
       </c>
-      <c r="T45" s="34">
+      <c r="T45" s="12">
         <f t="shared" si="6"/>
         <v>68254</v>
       </c>
-      <c r="U45" s="10">
+      <c r="U45" s="3">
         <v>10000</v>
       </c>
-      <c r="V45" s="19">
+      <c r="V45" s="7">
         <f t="shared" si="7"/>
         <v>6.8254000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="3" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="33">
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="10">
         <v>6799</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="10">
         <v>6857</v>
       </c>
-      <c r="L46" s="32">
+      <c r="L46" s="10">
         <v>6889</v>
       </c>
-      <c r="M46" s="32">
+      <c r="M46" s="10">
         <v>6842</v>
       </c>
-      <c r="N46" s="32">
+      <c r="N46" s="10">
         <v>6684</v>
       </c>
-      <c r="O46" s="32">
+      <c r="O46" s="10">
         <v>6917</v>
       </c>
-      <c r="P46" s="32">
+      <c r="P46" s="10">
         <v>6641</v>
       </c>
-      <c r="Q46" s="32">
+      <c r="Q46" s="10">
         <v>6912</v>
       </c>
-      <c r="R46" s="32">
+      <c r="R46" s="10">
         <v>6700</v>
       </c>
-      <c r="S46" s="32">
+      <c r="S46" s="10">
         <v>6726</v>
       </c>
-      <c r="T46" s="34">
+      <c r="T46" s="12">
         <f t="shared" si="6"/>
         <v>67967</v>
       </c>
-      <c r="U46" s="10">
+      <c r="U46" s="3">
         <v>10000</v>
       </c>
-      <c r="V46" s="19">
+      <c r="V46" s="7">
         <f t="shared" si="7"/>
         <v>6.7967000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="24">
+      <c r="B47" s="13"/>
+      <c r="C47" s="9">
         <v>0.04</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="28" t="s">
+      <c r="E47" s="41"/>
+      <c r="F47" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="33">
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="11">
         <v>0.04</v>
       </c>
-      <c r="J47" s="32">
+      <c r="J47" s="10">
         <v>4046</v>
       </c>
-      <c r="K47" s="32">
+      <c r="K47" s="10">
         <v>4031</v>
       </c>
-      <c r="L47" s="32">
+      <c r="L47" s="10">
         <v>3968</v>
       </c>
-      <c r="M47" s="32">
+      <c r="M47" s="10">
         <v>3923</v>
       </c>
-      <c r="N47" s="32">
+      <c r="N47" s="10">
         <v>4049</v>
       </c>
-      <c r="O47" s="32">
+      <c r="O47" s="10">
         <v>4023</v>
       </c>
-      <c r="P47" s="32">
+      <c r="P47" s="10">
         <v>4094</v>
       </c>
-      <c r="Q47" s="32">
+      <c r="Q47" s="10">
         <v>3945</v>
       </c>
-      <c r="R47" s="32">
+      <c r="R47" s="10">
         <v>3883</v>
       </c>
-      <c r="S47" s="32">
+      <c r="S47" s="10">
         <v>4004</v>
       </c>
-      <c r="T47" s="34">
+      <c r="T47" s="12">
         <f>SUM(J47:S47)</f>
         <v>39966</v>
       </c>
-      <c r="U47" s="10">
+      <c r="U47" s="3">
         <v>10000</v>
       </c>
-      <c r="V47" s="19">
+      <c r="V47" s="7">
         <f t="shared" si="7"/>
         <v>3.9965999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="4">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="2">
         <f>SUM(I35:I47)</f>
         <v>1</v>
       </c>
@@ -3444,23 +3657,995 @@
         <v>100</v>
       </c>
     </row>
+    <row r="52" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="42">
+        <v>0.123</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="38"/>
+      <c r="F53" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="31">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="42">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="40"/>
+      <c r="F58" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+    </row>
+    <row r="65" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+    </row>
+    <row r="66" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+    </row>
+    <row r="67" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+    </row>
+    <row r="68" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+    </row>
+    <row r="69" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+    </row>
+    <row r="70" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+    </row>
+    <row r="71" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+    </row>
+    <row r="72" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="31">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+    </row>
+    <row r="73" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+    </row>
+    <row r="74" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+    </row>
+    <row r="75" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+    </row>
+    <row r="76" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+    </row>
+    <row r="77" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A78" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="44">
+        <f>SUM(K53:K77)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="L78" s="12">
+        <f>SUM(L53:L77)</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="12">
+        <f>SUM(M53:M77)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="12">
+        <f>SUM(N53:N77)</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="12">
+        <f>SUM(O53:O77)</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="12">
+        <f>SUM(P53:P77)</f>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="12">
+        <f>SUM(Q53:Q77)</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="12">
+        <f>SUM(R53:R77)</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="12">
+        <f>SUM(S53:S77)</f>
+        <v>0</v>
+      </c>
+      <c r="T78" s="12">
+        <f>SUM(T53:T77)</f>
+        <v>0</v>
+      </c>
+      <c r="U78" s="12">
+        <f>SUM(U53:U77)</f>
+        <v>0</v>
+      </c>
+      <c r="V78" s="12">
+        <f>SUM(V53:V77)</f>
+        <v>0</v>
+      </c>
+      <c r="W78" s="12">
+        <f>SUM(W53:W77)</f>
+        <v>0</v>
+      </c>
+      <c r="X78" s="12">
+        <f>SUM(X53:X77)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:E46"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
+  <mergeCells count="112">
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="D53:E57"/>
+    <mergeCell ref="D58:E73"/>
+    <mergeCell ref="D74:E77"/>
+    <mergeCell ref="A74:B77"/>
+    <mergeCell ref="A53:B57"/>
+    <mergeCell ref="A58:B73"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B8"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D17:E25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="A17:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:H34"/>
@@ -3471,56 +4656,21 @@
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A26:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D17:E25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="A17:B25"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B8"/>
-    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:E46"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/확률과 통계 데이터 분석.xlsx
+++ b/확률과 통계 데이터 분석.xlsx
@@ -1157,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,11 +1209,98 @@
     <xf numFmtId="10" fontId="7" fillId="6" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1239,91 +1326,13 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1627,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E80" workbookViewId="0">
-      <selection activeCell="S81" sqref="S81"/>
+    <sheetView tabSelected="1" topLeftCell="C192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L224" sqref="L224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1640,22 +1649,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1700,22 +1709,22 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="40">
+      <c r="B2" s="19"/>
+      <c r="C2" s="36">
         <v>0.3004</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="6">
         <v>0.156</v>
       </c>
@@ -1762,16 +1771,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="37" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="6">
         <v>0.1444</v>
       </c>
@@ -1818,22 +1827,22 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="41">
+      <c r="B4" s="19"/>
+      <c r="C4" s="37">
         <v>0.6</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="6">
         <v>0.108</v>
       </c>
@@ -1880,16 +1889,16 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="6">
         <v>0.108</v>
       </c>
@@ -1936,18 +1945,18 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="39" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="6">
         <v>0.108</v>
       </c>
@@ -1994,16 +2003,16 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="6">
         <v>0.13800000000000001</v>
       </c>
@@ -2050,16 +2059,16 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="6">
         <v>0.13800000000000001</v>
       </c>
@@ -2106,22 +2115,22 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="40">
+      <c r="B9" s="19"/>
+      <c r="C9" s="36">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="6">
         <v>3.32E-2</v>
       </c>
@@ -2168,16 +2177,16 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="42" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="6">
         <v>3.32E-2</v>
       </c>
@@ -2224,16 +2233,16 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="42" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="6">
         <v>3.32E-2</v>
       </c>
@@ -2280,16 +2289,16 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="2">
         <f t="shared" ref="I12:T12" si="2">SUM(I2:I11)</f>
         <v>1</v>
@@ -2344,22 +2353,22 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2404,22 +2413,22 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="44">
+      <c r="B17" s="19"/>
+      <c r="C17" s="30">
         <v>0.86399999999999999</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="37" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2466,16 +2475,16 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="37" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2522,16 +2531,16 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="37" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2578,16 +2587,16 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="37" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2634,16 +2643,16 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="37" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2690,16 +2699,16 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="37" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2746,16 +2755,16 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="37" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2802,16 +2811,16 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="37" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2858,16 +2867,16 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="37" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="11">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2914,22 +2923,22 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="44">
+      <c r="B26" s="19"/>
+      <c r="C26" s="30">
         <v>0.1164</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="42" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="11">
         <v>3.8800000000000001E-2</v>
       </c>
@@ -2976,16 +2985,16 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="42" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="11">
         <v>3.8800000000000001E-2</v>
       </c>
@@ -3032,16 +3041,16 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="42" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="11">
         <v>3.8800000000000001E-2</v>
       </c>
@@ -3088,22 +3097,22 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="9">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="51" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="11">
         <v>1.9599999999999999E-2</v>
       </c>
@@ -3150,16 +3159,16 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="2">
         <f>SUM(I17:I29)</f>
         <v>0.99999999999999967</v>
@@ -3214,22 +3223,22 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="3" t="s">
         <v>21</v>
       </c>
@@ -3274,22 +3283,22 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="44">
+      <c r="B35" s="19"/>
+      <c r="C35" s="30">
         <v>0.75600000000000001</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="37" t="s">
+      <c r="E35" s="32"/>
+      <c r="F35" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3336,16 +3345,16 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="37" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3392,16 +3401,16 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="37" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3448,16 +3457,16 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="37" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3504,16 +3513,16 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="37" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3560,16 +3569,16 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="37" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3616,16 +3625,16 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="37" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3672,16 +3681,16 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="37" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3728,16 +3737,16 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="37" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="11">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3784,22 +3793,22 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="44">
+      <c r="B44" s="19"/>
+      <c r="C44" s="30">
         <v>0.20399999999999999</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="42" t="s">
+      <c r="E44" s="31"/>
+      <c r="F44" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -3846,16 +3855,16 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="42" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -3902,16 +3911,16 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="42" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="11">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -3958,22 +3967,22 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="9">
         <v>0.04</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="51" t="s">
+      <c r="E47" s="25"/>
+      <c r="F47" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
       <c r="I47" s="11">
         <v>0.04</v>
       </c>
@@ -4020,16 +4029,16 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
       <c r="I48" s="2">
         <f>SUM(I35:I47)</f>
         <v>1</v>
@@ -4084,24 +4093,24 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="33"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33" t="s">
+      <c r="E52" s="19"/>
+      <c r="F52" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
       <c r="K52" s="3" t="s">
         <v>21</v>
       </c>
@@ -4146,24 +4155,24 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="25">
+      <c r="B53" s="52"/>
+      <c r="C53" s="54">
         <v>0.123</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="31" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
       <c r="K53" s="14">
         <v>3.1E-2</v>
       </c>
@@ -4210,18 +4219,18 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="31" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
       <c r="K54" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -4268,18 +4277,18 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="31" t="s">
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
       <c r="K55" s="14">
         <v>0.03</v>
       </c>
@@ -4326,18 +4335,18 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="31" t="s">
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
       <c r="K56" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -4384,18 +4393,18 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="31" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
       <c r="K57" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -4442,24 +4451,24 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="25">
+      <c r="B58" s="52"/>
+      <c r="C58" s="54">
         <v>0.67700000000000005</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="29" t="s">
+      <c r="E58" s="51"/>
+      <c r="F58" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
       <c r="K58" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4506,18 +4515,18 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="29" t="s">
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
       <c r="K59" s="14">
         <v>0.04</v>
       </c>
@@ -4564,18 +4573,18 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="29" t="s">
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
       <c r="K60" s="14">
         <v>0.04</v>
       </c>
@@ -4622,18 +4631,18 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="27" t="s">
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
       <c r="K61" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -4680,18 +4689,18 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="27" t="s">
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
       <c r="K62" s="14">
         <v>0.05</v>
       </c>
@@ -4738,18 +4747,18 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="27" t="s">
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
       <c r="K63" s="14">
         <v>0.05</v>
       </c>
@@ -4796,18 +4805,18 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="29" t="s">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
       <c r="K64" s="14">
         <v>0.04</v>
       </c>
@@ -4854,18 +4863,18 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="29" t="s">
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
       <c r="K65" s="14">
         <v>0.02</v>
       </c>
@@ -4912,18 +4921,18 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="27" t="s">
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
       <c r="K66" s="14">
         <v>0.05</v>
       </c>
@@ -4958,7 +4967,7 @@
         <v>4984</v>
       </c>
       <c r="V66" s="12">
-        <f t="shared" ref="V66:V71" si="21">SUM(L66:U66)</f>
+        <f t="shared" ref="V66:V70" si="21">SUM(L66:U66)</f>
         <v>50203</v>
       </c>
       <c r="W66" s="3">
@@ -4970,18 +4979,18 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="29" t="s">
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
       <c r="K67" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5028,18 +5037,18 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="27" t="s">
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
       <c r="K68" s="14">
         <v>0.05</v>
       </c>
@@ -5086,18 +5095,18 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="27" t="s">
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
       <c r="K69" s="14">
         <v>0.05</v>
       </c>
@@ -5144,18 +5153,18 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="27" t="s">
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
       <c r="K70" s="14">
         <v>0.05</v>
       </c>
@@ -5202,18 +5211,18 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="27" t="s">
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
       <c r="K71" s="14">
         <v>0.05</v>
       </c>
@@ -5260,18 +5269,18 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="27" t="s">
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
       <c r="K72" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -5306,7 +5315,7 @@
         <v>4438</v>
       </c>
       <c r="V72" s="12">
-        <f t="shared" ref="V72:V77" si="23">SUM(L72:U72)</f>
+        <f t="shared" ref="V72:V76" si="23">SUM(L72:U72)</f>
         <v>45032</v>
       </c>
       <c r="W72" s="3">
@@ -5318,18 +5327,18 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="27" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
       <c r="K73" s="14">
         <v>0.04</v>
       </c>
@@ -5376,24 +5385,24 @@
       </c>
     </row>
     <row r="74" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="26">
+      <c r="B74" s="52"/>
+      <c r="C74" s="55">
         <v>0.2</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="27" t="s">
+      <c r="E74" s="53"/>
+      <c r="F74" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
       <c r="K74" s="14">
         <v>0.05</v>
       </c>
@@ -5440,18 +5449,18 @@
       </c>
     </row>
     <row r="75" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="27" t="s">
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
       <c r="K75" s="14">
         <v>0.05</v>
       </c>
@@ -5498,18 +5507,18 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="27" t="s">
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
       <c r="K76" s="14">
         <v>0.05</v>
       </c>
@@ -5556,18 +5565,18 @@
       </c>
     </row>
     <row r="77" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="27" t="s">
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
       <c r="K77" s="15">
         <v>0.05</v>
       </c>
@@ -5614,18 +5623,18 @@
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
       <c r="K78" s="16">
         <f t="shared" ref="K78:X78" si="24">SUM(K53:K77)</f>
         <v>1.0000000000000004</v>
@@ -5680,24 +5689,24 @@
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="33"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33" t="s">
+      <c r="E82" s="19"/>
+      <c r="F82" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
       <c r="K82" s="3" t="s">
         <v>21</v>
       </c>
@@ -5742,24 +5751,24 @@
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="55">
+      <c r="B83" s="19"/>
+      <c r="C83" s="20">
         <v>1</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33" t="s">
+      <c r="E83" s="19"/>
+      <c r="F83" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="3">
         <v>4.8169999999999998E-2</v>
       </c>
@@ -5806,18 +5815,18 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
       <c r="K84" s="3">
         <v>0.38533000000000001</v>
       </c>
@@ -5864,18 +5873,18 @@
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33" t="s">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="3">
         <v>0.19266</v>
       </c>
@@ -5922,18 +5931,18 @@
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33" t="s">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
       <c r="K86" s="3">
         <v>0.77064999999999995</v>
       </c>
@@ -5980,18 +5989,18 @@
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33" t="s">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="3">
         <v>3.8500000000000001E-3</v>
       </c>
@@ -6038,18 +6047,18 @@
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33" t="s">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
       <c r="K88" s="3">
         <v>3.8500000000000001E-3</v>
       </c>
@@ -6096,18 +6105,18 @@
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33" t="s">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
       <c r="K89" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -6154,18 +6163,18 @@
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33" t="s">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
       <c r="K90" s="3">
         <v>5.7799999999999997E-2</v>
       </c>
@@ -6212,18 +6221,18 @@
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33" t="s">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
       <c r="K91" s="3">
         <v>0.19266</v>
       </c>
@@ -6270,18 +6279,18 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33" t="s">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
       <c r="K92" s="3">
         <v>4.8169999999999998E-2</v>
       </c>
@@ -6328,18 +6337,18 @@
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33" t="s">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
       <c r="K93" s="3">
         <v>6.7430000000000004E-2</v>
       </c>
@@ -6386,18 +6395,18 @@
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33" t="s">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="56"/>
       <c r="K94" s="3">
         <v>3.8530000000000002E-2</v>
       </c>
@@ -6444,18 +6453,18 @@
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33" t="s">
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
       <c r="K95" s="3">
         <v>0.96331999999999995</v>
       </c>
@@ -6502,18 +6511,18 @@
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33" t="s">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
       <c r="K96" s="3">
         <v>9.6329999999999999E-2</v>
       </c>
@@ -6548,7 +6557,7 @@
         <v>89</v>
       </c>
       <c r="V96" s="12">
-        <f t="shared" ref="V96:V101" si="27">SUM(L96:U96)</f>
+        <f t="shared" ref="V96:V100" si="27">SUM(L96:U96)</f>
         <v>957</v>
       </c>
       <c r="W96" s="3">
@@ -6560,18 +6569,18 @@
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33" t="s">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
       <c r="K97" s="3">
         <v>0.48165999999999998</v>
       </c>
@@ -6618,18 +6627,18 @@
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33" t="s">
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="33"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="56"/>
+      <c r="J98" s="56"/>
       <c r="K98" s="3">
         <v>1.9269999999999999E-2</v>
       </c>
@@ -6676,18 +6685,18 @@
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33" t="s">
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
       <c r="K99" s="3">
         <v>1.9269999999999999E-2</v>
       </c>
@@ -6734,18 +6743,18 @@
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33" t="s">
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
       <c r="K100" s="3">
         <v>1.9269999999999999E-2</v>
       </c>
@@ -6792,18 +6801,18 @@
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33" t="s">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56"/>
+      <c r="J101" s="56"/>
       <c r="K101" s="3">
         <v>1.9269999999999999E-2</v>
       </c>
@@ -6850,18 +6859,18 @@
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33" t="s">
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="56"/>
+      <c r="J102" s="56"/>
       <c r="K102" s="3">
         <v>9.6329999999999999E-2</v>
       </c>
@@ -6896,7 +6905,7 @@
         <v>106</v>
       </c>
       <c r="V102" s="12">
-        <f t="shared" ref="V102:V107" si="28">SUM(L102:U102)</f>
+        <f t="shared" ref="V102:V106" si="28">SUM(L102:U102)</f>
         <v>971</v>
       </c>
       <c r="W102" s="3">
@@ -6908,18 +6917,18 @@
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33" t="s">
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56"/>
+      <c r="J103" s="56"/>
       <c r="K103" s="3">
         <v>1.9269999999999999E-2</v>
       </c>
@@ -6966,18 +6975,18 @@
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33" t="s">
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
       <c r="K104" s="3">
         <v>0.28899999999999998</v>
       </c>
@@ -7024,18 +7033,18 @@
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33" t="s">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
       <c r="K105" s="3">
         <v>0.38533000000000001</v>
       </c>
@@ -7082,18 +7091,18 @@
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33" t="s">
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="33"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
       <c r="K106" s="3">
         <v>0.57799</v>
       </c>
@@ -7140,18 +7149,18 @@
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33" t="s">
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="33"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
       <c r="K107" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -7198,18 +7207,18 @@
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33" t="s">
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="58"/>
+      <c r="J108" s="58"/>
       <c r="K108" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -7256,18 +7265,18 @@
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A109" s="33"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="58"/>
       <c r="K109" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -7314,18 +7323,18 @@
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33" t="s">
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="58"/>
+      <c r="J110" s="58"/>
       <c r="K110" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -7372,18 +7381,18 @@
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33" t="s">
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="58"/>
+      <c r="J111" s="58"/>
       <c r="K111" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -7430,18 +7439,18 @@
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33" t="s">
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="33"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="58"/>
+      <c r="I112" s="58"/>
+      <c r="J112" s="58"/>
       <c r="K112" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -7488,18 +7497,18 @@
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33" t="s">
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="33"/>
+      <c r="G113" s="58"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="58"/>
+      <c r="J113" s="58"/>
       <c r="K113" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -7546,18 +7555,18 @@
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33" t="s">
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="J114" s="58"/>
       <c r="K114" s="3">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -7604,18 +7613,18 @@
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A115" s="33"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33" t="s">
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="33"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="57"/>
       <c r="K115" s="3">
         <v>0.48165999999999998</v>
       </c>
@@ -7662,18 +7671,18 @@
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33" t="s">
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="33"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
       <c r="K116" s="3">
         <v>0.48165999999999998</v>
       </c>
@@ -7720,18 +7729,18 @@
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33" t="s">
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="33"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="57"/>
+      <c r="J117" s="57"/>
       <c r="K117" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -7778,18 +7787,18 @@
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A118" s="33"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33" t="s">
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="57"/>
+      <c r="J118" s="57"/>
       <c r="K118" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -7836,18 +7845,18 @@
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33" t="s">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
       <c r="K119" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -7894,18 +7903,18 @@
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A120" s="33"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33" t="s">
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
-      <c r="J120" s="33"/>
+      <c r="G120" s="57"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="57"/>
+      <c r="J120" s="57"/>
       <c r="K120" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -7952,18 +7961,18 @@
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A121" s="33"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33" t="s">
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="33"/>
-      <c r="J121" s="33"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
       <c r="K121" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -7998,7 +8007,7 @@
         <v>247</v>
       </c>
       <c r="V121" s="12">
-        <f t="shared" ref="V121:V126" si="31">SUM(L121:U121)</f>
+        <f t="shared" ref="V121:V125" si="31">SUM(L121:U121)</f>
         <v>2732</v>
       </c>
       <c r="W121" s="3">
@@ -8010,18 +8019,18 @@
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33" t="s">
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="33"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="57"/>
       <c r="K122" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8068,18 +8077,18 @@
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A123" s="33"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33" t="s">
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
       <c r="K123" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8126,18 +8135,18 @@
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33" t="s">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="57"/>
+      <c r="J124" s="57"/>
       <c r="K124" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8184,18 +8193,18 @@
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A125" s="33"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33" t="s">
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33"/>
-      <c r="J125" s="33"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
       <c r="K125" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8242,18 +8251,18 @@
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33" t="s">
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="33"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
       <c r="K126" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8300,18 +8309,18 @@
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33" t="s">
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="33"/>
-      <c r="J127" s="33"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="57"/>
+      <c r="J127" s="57"/>
       <c r="K127" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8346,7 +8355,7 @@
         <v>282</v>
       </c>
       <c r="V127" s="12">
-        <f t="shared" ref="V127:V132" si="32">SUM(L127:U127)</f>
+        <f t="shared" ref="V127:V131" si="32">SUM(L127:U127)</f>
         <v>2714</v>
       </c>
       <c r="W127" s="3">
@@ -8358,18 +8367,18 @@
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33" t="s">
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="33"/>
-      <c r="J128" s="33"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="57"/>
+      <c r="J128" s="57"/>
       <c r="K128" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8416,18 +8425,18 @@
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33" t="s">
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="57"/>
+      <c r="J129" s="57"/>
       <c r="K129" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8474,18 +8483,18 @@
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33" t="s">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="33"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
       <c r="K130" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8532,18 +8541,18 @@
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33" t="s">
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="33"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
       <c r="K131" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8590,18 +8599,18 @@
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A132" s="33"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33" t="s">
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="57"/>
       <c r="K132" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8648,18 +8657,18 @@
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33" t="s">
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="58"/>
+      <c r="J133" s="58"/>
       <c r="K133" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8706,18 +8715,18 @@
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A134" s="33"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33" t="s">
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="G134" s="33"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="33"/>
-      <c r="J134" s="33"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="58"/>
+      <c r="J134" s="58"/>
       <c r="K134" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8764,18 +8773,18 @@
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A135" s="33"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33" t="s">
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="33"/>
-      <c r="J135" s="33"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="58"/>
+      <c r="J135" s="58"/>
       <c r="K135" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8822,18 +8831,18 @@
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A136" s="33"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33" t="s">
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="33"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
       <c r="K136" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8880,18 +8889,18 @@
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A137" s="33"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33" t="s">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="57"/>
       <c r="K137" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8938,18 +8947,18 @@
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A138" s="33"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33" t="s">
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="33"/>
-      <c r="J138" s="33"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="57"/>
       <c r="K138" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -8996,18 +9005,18 @@
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33" t="s">
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="33"/>
-      <c r="J139" s="33"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="57"/>
       <c r="K139" s="3">
         <v>0.26973000000000003</v>
       </c>
@@ -9054,18 +9063,18 @@
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33" t="s">
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="33"/>
+      <c r="G140" s="56"/>
+      <c r="H140" s="56"/>
+      <c r="I140" s="56"/>
+      <c r="J140" s="56"/>
       <c r="K140" s="3">
         <v>0.38533000000000001</v>
       </c>
@@ -9112,18 +9121,18 @@
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A141" s="33"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33" t="s">
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="33"/>
-      <c r="J141" s="33"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="58"/>
+      <c r="I141" s="58"/>
+      <c r="J141" s="58"/>
       <c r="K141" s="3">
         <v>0.38533000000000001</v>
       </c>
@@ -9170,18 +9179,18 @@
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A142" s="33"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33" t="s">
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="33"/>
-      <c r="J142" s="33"/>
+      <c r="G142" s="56"/>
+      <c r="H142" s="56"/>
+      <c r="I142" s="56"/>
+      <c r="J142" s="56"/>
       <c r="K142" s="3">
         <v>0.38533000000000001</v>
       </c>
@@ -9228,18 +9237,18 @@
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A143" s="33"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33" t="s">
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-      <c r="I143" s="33"/>
-      <c r="J143" s="33"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="58"/>
+      <c r="I143" s="58"/>
+      <c r="J143" s="58"/>
       <c r="K143" s="3">
         <v>0.38533000000000001</v>
       </c>
@@ -9286,18 +9295,18 @@
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33" t="s">
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="33"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="58"/>
+      <c r="I144" s="58"/>
+      <c r="J144" s="58"/>
       <c r="K144" s="3">
         <v>0.38533000000000001</v>
       </c>
@@ -9344,18 +9353,18 @@
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A145" s="33"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33" t="s">
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="G145" s="33"/>
-      <c r="H145" s="33"/>
-      <c r="I145" s="33"/>
-      <c r="J145" s="33"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="58"/>
+      <c r="I145" s="58"/>
+      <c r="J145" s="58"/>
       <c r="K145" s="3">
         <v>0.28899999999999998</v>
       </c>
@@ -9402,18 +9411,18 @@
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A146" s="33"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33" t="s">
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="58"/>
+      <c r="I146" s="58"/>
+      <c r="J146" s="58"/>
       <c r="K146" s="3">
         <v>0.57799</v>
       </c>
@@ -9448,7 +9457,7 @@
         <v>594</v>
       </c>
       <c r="V146" s="12">
-        <f t="shared" ref="V146:V151" si="35">SUM(L146:U146)</f>
+        <f t="shared" ref="V146:V150" si="35">SUM(L146:U146)</f>
         <v>5705</v>
       </c>
       <c r="W146" s="3">
@@ -9460,18 +9469,18 @@
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33" t="s">
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
-      <c r="I147" s="33"/>
-      <c r="J147" s="33"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
       <c r="K147" s="3">
         <v>0.57799</v>
       </c>
@@ -9518,18 +9527,18 @@
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A148" s="33"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33" t="s">
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="33"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="57"/>
       <c r="K148" s="3">
         <v>0.57799</v>
       </c>
@@ -9576,18 +9585,18 @@
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A149" s="33"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33" t="s">
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="33"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="57"/>
       <c r="K149" s="3">
         <v>0.57799</v>
       </c>
@@ -9634,18 +9643,18 @@
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33" t="s">
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="33"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="57"/>
       <c r="K150" s="3">
         <v>0.57799</v>
       </c>
@@ -9692,18 +9701,18 @@
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A151" s="33"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33" t="s">
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="33"/>
-      <c r="J151" s="33"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="57"/>
       <c r="K151" s="3">
         <v>0.57799</v>
       </c>
@@ -9750,18 +9759,18 @@
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A152" s="33"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33" t="s">
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="33"/>
-      <c r="J152" s="33"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="57"/>
       <c r="K152" s="3">
         <v>0.57799</v>
       </c>
@@ -9796,7 +9805,7 @@
         <v>599</v>
       </c>
       <c r="V152" s="12">
-        <f t="shared" ref="V152:V157" si="36">SUM(L152:U152)</f>
+        <f t="shared" ref="V152:V156" si="36">SUM(L152:U152)</f>
         <v>5828</v>
       </c>
       <c r="W152" s="3">
@@ -9808,18 +9817,18 @@
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A153" s="33"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33" t="s">
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="33"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="57"/>
       <c r="K153" s="3">
         <v>0.57799</v>
       </c>
@@ -9866,18 +9875,18 @@
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33" t="s">
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="33"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
       <c r="K154" s="3">
         <v>0.57799</v>
       </c>
@@ -9924,18 +9933,18 @@
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A155" s="33"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33" t="s">
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="33"/>
-      <c r="J155" s="33"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
       <c r="K155" s="3">
         <v>0.57799</v>
       </c>
@@ -9982,18 +9991,18 @@
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A156" s="33"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33" t="s">
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="33"/>
-      <c r="J156" s="33"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
       <c r="K156" s="3">
         <v>0.57799</v>
       </c>
@@ -10040,18 +10049,18 @@
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A157" s="33"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33" t="s">
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="33"/>
-      <c r="J157" s="33"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="57"/>
       <c r="K157" s="3">
         <v>0.57799</v>
       </c>
@@ -10098,18 +10107,18 @@
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A158" s="33"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33" t="s">
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="33"/>
-      <c r="J158" s="33"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="57"/>
       <c r="K158" s="3">
         <v>0.57799</v>
       </c>
@@ -10156,18 +10165,18 @@
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A159" s="33"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33" t="s">
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="33"/>
+      <c r="G159" s="57"/>
+      <c r="H159" s="57"/>
+      <c r="I159" s="57"/>
+      <c r="J159" s="57"/>
       <c r="K159" s="3">
         <v>0.57799</v>
       </c>
@@ -10214,18 +10223,18 @@
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A160" s="33"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33" t="s">
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="33"/>
-      <c r="J160" s="33"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="57"/>
+      <c r="I160" s="57"/>
+      <c r="J160" s="57"/>
       <c r="K160" s="3">
         <v>0.57799</v>
       </c>
@@ -10272,18 +10281,18 @@
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33" t="s">
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="33"/>
-      <c r="J161" s="33"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
       <c r="K161" s="3">
         <v>0.57799</v>
       </c>
@@ -10330,18 +10339,18 @@
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A162" s="33"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33" t="s">
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="33"/>
-      <c r="J162" s="33"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="57"/>
       <c r="K162" s="3">
         <v>0.57799</v>
       </c>
@@ -10388,18 +10397,18 @@
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A163" s="33"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33" t="s">
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
-      <c r="J163" s="33"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="57"/>
+      <c r="I163" s="57"/>
+      <c r="J163" s="57"/>
       <c r="K163" s="3">
         <v>0.57799</v>
       </c>
@@ -10446,18 +10455,18 @@
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A164" s="33"/>
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33" t="s">
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="33"/>
-      <c r="J164" s="33"/>
+      <c r="G164" s="57"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="57"/>
+      <c r="J164" s="57"/>
       <c r="K164" s="3">
         <v>0.57799</v>
       </c>
@@ -10504,18 +10513,18 @@
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A165" s="33"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33" t="s">
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
-      <c r="I165" s="33"/>
-      <c r="J165" s="33"/>
+      <c r="G165" s="57"/>
+      <c r="H165" s="57"/>
+      <c r="I165" s="57"/>
+      <c r="J165" s="57"/>
       <c r="K165" s="3">
         <v>0.57799</v>
       </c>
@@ -10562,18 +10571,18 @@
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A166" s="33"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33" t="s">
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="33"/>
-      <c r="J166" s="33"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="57"/>
       <c r="K166" s="3">
         <v>0.57799</v>
       </c>
@@ -10620,18 +10629,18 @@
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A167" s="33"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33" t="s">
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="G167" s="33"/>
-      <c r="H167" s="33"/>
-      <c r="I167" s="33"/>
-      <c r="J167" s="33"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="57"/>
+      <c r="I167" s="57"/>
+      <c r="J167" s="57"/>
       <c r="K167" s="3">
         <v>0.57799</v>
       </c>
@@ -10678,18 +10687,18 @@
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33" t="s">
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="G168" s="33"/>
-      <c r="H168" s="33"/>
-      <c r="I168" s="33"/>
-      <c r="J168" s="33"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
+      <c r="I168" s="57"/>
+      <c r="J168" s="57"/>
       <c r="K168" s="3">
         <v>0.57799</v>
       </c>
@@ -10736,18 +10745,18 @@
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A169" s="33"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33" t="s">
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="G169" s="33"/>
-      <c r="H169" s="33"/>
-      <c r="I169" s="33"/>
-      <c r="J169" s="33"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="57"/>
+      <c r="J169" s="57"/>
       <c r="K169" s="3">
         <v>0.57799</v>
       </c>
@@ -10794,18 +10803,18 @@
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A170" s="33"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33" t="s">
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="G170" s="33"/>
-      <c r="H170" s="33"/>
-      <c r="I170" s="33"/>
-      <c r="J170" s="33"/>
+      <c r="G170" s="57"/>
+      <c r="H170" s="57"/>
+      <c r="I170" s="57"/>
+      <c r="J170" s="57"/>
       <c r="K170" s="3">
         <v>0.57799</v>
       </c>
@@ -10852,18 +10861,18 @@
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A171" s="33"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33" t="s">
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="33"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="57"/>
+      <c r="I171" s="57"/>
+      <c r="J171" s="57"/>
       <c r="K171" s="3">
         <v>3.8532700000000002</v>
       </c>
@@ -10898,7 +10907,7 @@
         <v>3795</v>
       </c>
       <c r="V171" s="12">
-        <f t="shared" ref="V171:V176" si="39">SUM(L171:U171)</f>
+        <f t="shared" ref="V171:V175" si="39">SUM(L171:U171)</f>
         <v>38231</v>
       </c>
       <c r="W171" s="3">
@@ -10910,18 +10919,18 @@
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A172" s="33"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33" t="s">
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="33"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="57"/>
+      <c r="J172" s="57"/>
       <c r="K172" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -10968,18 +10977,18 @@
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A173" s="33"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33" t="s">
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
-      <c r="I173" s="33"/>
-      <c r="J173" s="33"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="57"/>
+      <c r="I173" s="57"/>
+      <c r="J173" s="57"/>
       <c r="K173" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11026,18 +11035,18 @@
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A174" s="33"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33" t="s">
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="G174" s="33"/>
-      <c r="H174" s="33"/>
-      <c r="I174" s="33"/>
-      <c r="J174" s="33"/>
+      <c r="G174" s="57"/>
+      <c r="H174" s="57"/>
+      <c r="I174" s="57"/>
+      <c r="J174" s="57"/>
       <c r="K174" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11084,18 +11093,18 @@
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33" t="s">
+      <c r="A175" s="19"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G175" s="33"/>
-      <c r="H175" s="33"/>
-      <c r="I175" s="33"/>
-      <c r="J175" s="33"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="57"/>
+      <c r="I175" s="57"/>
+      <c r="J175" s="57"/>
       <c r="K175" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11142,18 +11151,18 @@
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A176" s="33"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33" t="s">
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="G176" s="33"/>
-      <c r="H176" s="33"/>
-      <c r="I176" s="33"/>
-      <c r="J176" s="33"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="57"/>
+      <c r="J176" s="57"/>
       <c r="K176" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11200,18 +11209,18 @@
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A177" s="33"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33" t="s">
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="G177" s="33"/>
-      <c r="H177" s="33"/>
-      <c r="I177" s="33"/>
-      <c r="J177" s="33"/>
+      <c r="G177" s="57"/>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
+      <c r="J177" s="57"/>
       <c r="K177" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11246,7 +11255,7 @@
         <v>1499</v>
       </c>
       <c r="V177" s="12">
-        <f t="shared" ref="V177:V182" si="40">SUM(L177:U177)</f>
+        <f t="shared" ref="V177:V181" si="40">SUM(L177:U177)</f>
         <v>14645</v>
       </c>
       <c r="W177" s="3">
@@ -11258,18 +11267,18 @@
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33" t="s">
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="G178" s="33"/>
-      <c r="H178" s="33"/>
-      <c r="I178" s="33"/>
-      <c r="J178" s="33"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="57"/>
+      <c r="J178" s="57"/>
       <c r="K178" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11316,18 +11325,18 @@
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A179" s="33"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33" t="s">
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="G179" s="33"/>
-      <c r="H179" s="33"/>
-      <c r="I179" s="33"/>
-      <c r="J179" s="33"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="57"/>
+      <c r="I179" s="57"/>
+      <c r="J179" s="57"/>
       <c r="K179" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11374,18 +11383,18 @@
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A180" s="33"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33" t="s">
+      <c r="A180" s="19"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
-      <c r="J180" s="33"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="57"/>
+      <c r="J180" s="57"/>
       <c r="K180" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11432,18 +11441,18 @@
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A181" s="33"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33" t="s">
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
-      <c r="I181" s="33"/>
-      <c r="J181" s="33"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="57"/>
       <c r="K181" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11490,18 +11499,18 @@
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33" t="s">
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="33"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
       <c r="K182" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11548,18 +11557,18 @@
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A183" s="33"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33" t="s">
+      <c r="A183" s="19"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="33"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="57"/>
+      <c r="J183" s="57"/>
       <c r="K183" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11606,18 +11615,18 @@
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A184" s="33"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33" t="s">
+      <c r="A184" s="19"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="33"/>
-      <c r="J184" s="33"/>
+      <c r="G184" s="57"/>
+      <c r="H184" s="57"/>
+      <c r="I184" s="57"/>
+      <c r="J184" s="57"/>
       <c r="K184" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11664,18 +11673,18 @@
       </c>
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A185" s="33"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33" t="s">
+      <c r="A185" s="19"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="33"/>
-      <c r="J185" s="33"/>
+      <c r="G185" s="57"/>
+      <c r="H185" s="57"/>
+      <c r="I185" s="57"/>
+      <c r="J185" s="57"/>
       <c r="K185" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11722,18 +11731,18 @@
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A186" s="33"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33" t="s">
+      <c r="A186" s="19"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="33"/>
+      <c r="G186" s="57"/>
+      <c r="H186" s="57"/>
+      <c r="I186" s="57"/>
+      <c r="J186" s="57"/>
       <c r="K186" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -11780,18 +11789,18 @@
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A187" s="33"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33" t="s">
+      <c r="A187" s="19"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="33"/>
-      <c r="J187" s="33"/>
+      <c r="G187" s="57"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="57"/>
+      <c r="J187" s="57"/>
       <c r="K187" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -11838,18 +11847,18 @@
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A188" s="33"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33" t="s">
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="33"/>
-      <c r="J188" s="33"/>
+      <c r="G188" s="57"/>
+      <c r="H188" s="57"/>
+      <c r="I188" s="57"/>
+      <c r="J188" s="57"/>
       <c r="K188" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -11896,18 +11905,18 @@
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33" t="s">
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="33"/>
-      <c r="J189" s="33"/>
+      <c r="G189" s="57"/>
+      <c r="H189" s="57"/>
+      <c r="I189" s="57"/>
+      <c r="J189" s="57"/>
       <c r="K189" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -11954,18 +11963,18 @@
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A190" s="33"/>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33" t="s">
+      <c r="A190" s="19"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="33"/>
-      <c r="J190" s="33"/>
+      <c r="G190" s="57"/>
+      <c r="H190" s="57"/>
+      <c r="I190" s="57"/>
+      <c r="J190" s="57"/>
       <c r="K190" s="3">
         <v>0.96331999999999995</v>
       </c>
@@ -12012,18 +12021,18 @@
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A191" s="33"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33" t="s">
+      <c r="A191" s="19"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="33"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="57"/>
+      <c r="J191" s="57"/>
       <c r="K191" s="3">
         <v>0.96331999999999995</v>
       </c>
@@ -12070,18 +12079,18 @@
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A192" s="33"/>
-      <c r="B192" s="33"/>
-      <c r="C192" s="33"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33" t="s">
+      <c r="A192" s="19"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="33"/>
+      <c r="G192" s="57"/>
+      <c r="H192" s="57"/>
+      <c r="I192" s="57"/>
+      <c r="J192" s="57"/>
       <c r="K192" s="3">
         <v>0.96331999999999995</v>
       </c>
@@ -12128,18 +12137,18 @@
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A193" s="33"/>
-      <c r="B193" s="33"/>
-      <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33" t="s">
+      <c r="A193" s="19"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="33"/>
+      <c r="G193" s="57"/>
+      <c r="H193" s="57"/>
+      <c r="I193" s="57"/>
+      <c r="J193" s="57"/>
       <c r="K193" s="3">
         <v>0.96331999999999995</v>
       </c>
@@ -12186,18 +12195,18 @@
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A194" s="33"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33" t="s">
+      <c r="A194" s="19"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="33"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57"/>
       <c r="K194" s="3">
         <v>0.96331999999999995</v>
       </c>
@@ -12244,18 +12253,18 @@
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A195" s="33"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="33"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33" t="s">
+      <c r="A195" s="19"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="33"/>
+      <c r="G195" s="57"/>
+      <c r="H195" s="57"/>
+      <c r="I195" s="57"/>
+      <c r="J195" s="57"/>
       <c r="K195" s="3">
         <v>1.4449799999999999</v>
       </c>
@@ -12302,18 +12311,18 @@
       </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A196" s="33"/>
-      <c r="B196" s="33"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33" t="s">
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="33"/>
+      <c r="G196" s="57"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="57"/>
+      <c r="J196" s="57"/>
       <c r="K196" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12348,7 +12357,7 @@
         <v>1965</v>
       </c>
       <c r="V196" s="12">
-        <f t="shared" ref="V196:V201" si="43">SUM(L196:U196)</f>
+        <f t="shared" ref="V196:V200" si="43">SUM(L196:U196)</f>
         <v>19016</v>
       </c>
       <c r="W196" s="3">
@@ -12360,18 +12369,18 @@
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A197" s="33"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33" t="s">
+      <c r="A197" s="19"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="33"/>
+      <c r="G197" s="57"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
+      <c r="J197" s="57"/>
       <c r="K197" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12418,18 +12427,18 @@
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A198" s="33"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="33"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33" t="s">
+      <c r="A198" s="19"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="33"/>
-      <c r="J198" s="33"/>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="57"/>
+      <c r="J198" s="57"/>
       <c r="K198" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12476,18 +12485,18 @@
       </c>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A199" s="33"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33" t="s">
+      <c r="A199" s="19"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="33"/>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
+      <c r="J199" s="57"/>
       <c r="K199" s="3">
         <v>0.96331999999999995</v>
       </c>
@@ -12534,18 +12543,18 @@
       </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A200" s="33"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33" t="s">
+      <c r="A200" s="19"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="33"/>
-      <c r="J200" s="33"/>
+      <c r="G200" s="57"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="57"/>
+      <c r="J200" s="57"/>
       <c r="K200" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12592,18 +12601,18 @@
       </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A201" s="33"/>
-      <c r="B201" s="33"/>
-      <c r="C201" s="33"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33" t="s">
+      <c r="A201" s="19"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="33"/>
-      <c r="J201" s="33"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="57"/>
+      <c r="J201" s="57"/>
       <c r="K201" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12650,18 +12659,18 @@
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A202" s="33"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="33"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33" t="s">
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G202" s="33"/>
-      <c r="H202" s="33"/>
-      <c r="I202" s="33"/>
-      <c r="J202" s="33"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57"/>
+      <c r="I202" s="57"/>
+      <c r="J202" s="57"/>
       <c r="K202" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12696,7 +12705,7 @@
         <v>1916</v>
       </c>
       <c r="V202" s="12">
-        <f t="shared" ref="V202:V207" si="44">SUM(L202:U202)</f>
+        <f t="shared" ref="V202:V206" si="44">SUM(L202:U202)</f>
         <v>19232</v>
       </c>
       <c r="W202" s="3">
@@ -12708,18 +12717,18 @@
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A203" s="33"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33" t="s">
+      <c r="A203" s="19"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="G203" s="33"/>
-      <c r="H203" s="33"/>
-      <c r="I203" s="33"/>
-      <c r="J203" s="33"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="57"/>
+      <c r="I203" s="57"/>
+      <c r="J203" s="57"/>
       <c r="K203" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12766,18 +12775,18 @@
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A204" s="33"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="33"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33" t="s">
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-      <c r="I204" s="33"/>
-      <c r="J204" s="33"/>
+      <c r="G204" s="57"/>
+      <c r="H204" s="57"/>
+      <c r="I204" s="57"/>
+      <c r="J204" s="57"/>
       <c r="K204" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12824,18 +12833,18 @@
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A205" s="33"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="33"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33" t="s">
+      <c r="A205" s="19"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="G205" s="33"/>
-      <c r="H205" s="33"/>
-      <c r="I205" s="33"/>
-      <c r="J205" s="33"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57"/>
+      <c r="I205" s="57"/>
+      <c r="J205" s="57"/>
       <c r="K205" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12882,18 +12891,18 @@
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A206" s="33"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="33"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33" t="s">
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
-      <c r="I206" s="33"/>
-      <c r="J206" s="33"/>
+      <c r="G206" s="57"/>
+      <c r="H206" s="57"/>
+      <c r="I206" s="57"/>
+      <c r="J206" s="57"/>
       <c r="K206" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12940,18 +12949,18 @@
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A207" s="33"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="33"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33" t="s">
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="G207" s="33"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="33"/>
-      <c r="J207" s="33"/>
+      <c r="G207" s="57"/>
+      <c r="H207" s="57"/>
+      <c r="I207" s="57"/>
+      <c r="J207" s="57"/>
       <c r="K207" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -12998,18 +13007,18 @@
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A208" s="33"/>
-      <c r="B208" s="33"/>
-      <c r="C208" s="33"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33" t="s">
+      <c r="A208" s="19"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-      <c r="I208" s="33"/>
-      <c r="J208" s="33"/>
+      <c r="G208" s="57"/>
+      <c r="H208" s="57"/>
+      <c r="I208" s="57"/>
+      <c r="J208" s="57"/>
       <c r="K208" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -13044,7 +13053,7 @@
         <v>1926</v>
       </c>
       <c r="V208" s="12">
-        <f t="shared" ref="V208:V213" si="45">SUM(L208:U208)</f>
+        <f t="shared" ref="V208:V212" si="45">SUM(L208:U208)</f>
         <v>19208</v>
       </c>
       <c r="W208" s="3">
@@ -13056,18 +13065,18 @@
       </c>
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A209" s="33"/>
-      <c r="B209" s="33"/>
-      <c r="C209" s="33"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33" t="s">
+      <c r="A209" s="19"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
-      <c r="I209" s="33"/>
-      <c r="J209" s="33"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="57"/>
+      <c r="J209" s="57"/>
       <c r="K209" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -13114,18 +13123,18 @@
       </c>
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A210" s="33"/>
-      <c r="B210" s="33"/>
-      <c r="C210" s="33"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33" t="s">
+      <c r="A210" s="19"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="33"/>
-      <c r="J210" s="33"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="57"/>
+      <c r="J210" s="57"/>
       <c r="K210" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -13172,18 +13181,18 @@
       </c>
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A211" s="33"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33" t="s">
+      <c r="A211" s="19"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="33"/>
-      <c r="J211" s="33"/>
+      <c r="G211" s="57"/>
+      <c r="H211" s="57"/>
+      <c r="I211" s="57"/>
+      <c r="J211" s="57"/>
       <c r="K211" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -13230,18 +13239,18 @@
       </c>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A212" s="33"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="33"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33" t="s">
+      <c r="A212" s="19"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="33"/>
-      <c r="J212" s="33"/>
+      <c r="G212" s="57"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="57"/>
+      <c r="J212" s="57"/>
       <c r="K212" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -13288,18 +13297,18 @@
       </c>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A213" s="33"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33" t="s">
+      <c r="A213" s="19"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
-      <c r="J213" s="33"/>
+      <c r="G213" s="57"/>
+      <c r="H213" s="57"/>
+      <c r="I213" s="57"/>
+      <c r="J213" s="57"/>
       <c r="K213" s="3">
         <v>1.9266300000000001</v>
       </c>
@@ -13346,64 +13355,64 @@
       </c>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A214" s="17" t="s">
+      <c r="A214" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18"/>
-      <c r="F214" s="18"/>
-      <c r="G214" s="18"/>
-      <c r="H214" s="18"/>
-      <c r="I214" s="18"/>
-      <c r="J214" s="18"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="22"/>
+      <c r="H214" s="22"/>
+      <c r="I214" s="22"/>
+      <c r="J214" s="22"/>
       <c r="K214" s="8">
-        <f>SUM(K83:K213)</f>
+        <f t="shared" ref="K214:V214" si="47">SUM(K83:K213)</f>
         <v>100.00006000000006</v>
       </c>
       <c r="L214" s="8">
-        <f>SUM(L83:L213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="M214" s="8">
-        <f>SUM(M83:M213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="N214" s="8">
-        <f>SUM(N83:N213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="O214" s="8">
-        <f>SUM(O83:O213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="P214" s="8">
-        <f>SUM(P83:P213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="Q214" s="8">
-        <f>SUM(Q83:Q213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="R214" s="8">
-        <f>SUM(R83:R213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="S214" s="8">
-        <f>SUM(S83:S213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="T214" s="8">
-        <f>SUM(T83:T213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="U214" s="8">
-        <f>SUM(U83:U213)</f>
+        <f t="shared" si="47"/>
         <v>100000</v>
       </c>
       <c r="V214" s="8">
-        <f>SUM(V83:V213)</f>
+        <f t="shared" si="47"/>
         <v>1000000</v>
       </c>
       <c r="X214" s="1">
@@ -13413,400 +13422,626 @@
     </row>
     <row r="241" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="242" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K242" s="53"/>
+      <c r="K242" s="17"/>
     </row>
     <row r="243" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K243" s="53"/>
+      <c r="K243" s="17"/>
     </row>
     <row r="244" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K244" s="53"/>
+      <c r="K244" s="17"/>
     </row>
     <row r="245" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K245" s="53"/>
+      <c r="K245" s="17"/>
     </row>
     <row r="246" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K246" s="53"/>
+      <c r="K246" s="17"/>
     </row>
     <row r="247" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K247" s="53"/>
+      <c r="K247" s="17"/>
     </row>
     <row r="248" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K248" s="53"/>
+      <c r="K248" s="17"/>
     </row>
     <row r="249" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K249" s="53"/>
+      <c r="K249" s="17"/>
     </row>
     <row r="250" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K250" s="53"/>
+      <c r="K250" s="17"/>
     </row>
     <row r="251" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K251" s="53"/>
+      <c r="K251" s="17"/>
     </row>
     <row r="252" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K252" s="53"/>
+      <c r="K252" s="17"/>
     </row>
     <row r="253" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K253" s="53"/>
+      <c r="K253" s="17"/>
     </row>
     <row r="254" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K254" s="53"/>
+      <c r="K254" s="17"/>
     </row>
     <row r="255" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K255" s="53"/>
+      <c r="K255" s="17"/>
     </row>
     <row r="256" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K256" s="53"/>
+      <c r="K256" s="17"/>
     </row>
     <row r="257" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K257" s="53"/>
+      <c r="K257" s="17"/>
     </row>
     <row r="258" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K258" s="53"/>
+      <c r="K258" s="17"/>
     </row>
     <row r="259" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K259" s="53"/>
+      <c r="K259" s="17"/>
     </row>
     <row r="260" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K260" s="53"/>
+      <c r="K260" s="17"/>
     </row>
     <row r="261" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K261" s="53"/>
+      <c r="K261" s="17"/>
     </row>
     <row r="262" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K262" s="53"/>
+      <c r="K262" s="17"/>
     </row>
     <row r="263" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K263" s="53"/>
+      <c r="K263" s="17"/>
     </row>
     <row r="264" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K264" s="53"/>
+      <c r="K264" s="17"/>
     </row>
     <row r="265" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K265" s="53"/>
+      <c r="K265" s="17"/>
     </row>
     <row r="266" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K266" s="53"/>
+      <c r="K266" s="17"/>
     </row>
     <row r="267" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K267" s="53"/>
+      <c r="K267" s="17"/>
     </row>
     <row r="268" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K268" s="53"/>
+      <c r="K268" s="17"/>
     </row>
     <row r="269" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K269" s="53"/>
+      <c r="K269" s="17"/>
     </row>
     <row r="270" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K270" s="53"/>
+      <c r="K270" s="17"/>
     </row>
     <row r="271" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K271" s="53"/>
+      <c r="K271" s="17"/>
     </row>
     <row r="272" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K272" s="53"/>
+      <c r="K272" s="17"/>
     </row>
     <row r="273" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K273" s="53"/>
+      <c r="K273" s="17"/>
     </row>
     <row r="274" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K274" s="53"/>
+      <c r="K274" s="17"/>
     </row>
     <row r="275" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K275" s="53"/>
+      <c r="K275" s="17"/>
     </row>
     <row r="276" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K276" s="53"/>
+      <c r="K276" s="17"/>
     </row>
     <row r="277" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K277" s="53"/>
+      <c r="K277" s="17"/>
     </row>
     <row r="278" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K278" s="53"/>
+      <c r="K278" s="17"/>
     </row>
     <row r="279" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K279" s="53"/>
+      <c r="K279" s="17"/>
     </row>
     <row r="280" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K280" s="53"/>
+      <c r="K280" s="17"/>
     </row>
     <row r="281" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K281" s="53"/>
+      <c r="K281" s="17"/>
     </row>
     <row r="282" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K282" s="53"/>
+      <c r="K282" s="17"/>
     </row>
     <row r="283" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K283" s="53"/>
+      <c r="K283" s="17"/>
     </row>
     <row r="284" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K284" s="53"/>
+      <c r="K284" s="17"/>
     </row>
     <row r="285" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K285" s="53"/>
+      <c r="K285" s="17"/>
     </row>
     <row r="286" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K286" s="53"/>
+      <c r="K286" s="17"/>
     </row>
     <row r="287" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K287" s="53"/>
+      <c r="K287" s="17"/>
     </row>
     <row r="288" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K288" s="53"/>
+      <c r="K288" s="17"/>
     </row>
     <row r="289" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K289" s="53"/>
+      <c r="K289" s="17"/>
     </row>
     <row r="290" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K290" s="53"/>
+      <c r="K290" s="17"/>
     </row>
     <row r="291" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K291" s="53"/>
+      <c r="K291" s="17"/>
     </row>
     <row r="292" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K292" s="53"/>
+      <c r="K292" s="17"/>
     </row>
     <row r="293" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K293" s="53"/>
+      <c r="K293" s="17"/>
     </row>
     <row r="294" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K294" s="53"/>
+      <c r="K294" s="17"/>
     </row>
     <row r="295" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K295" s="53"/>
+      <c r="K295" s="17"/>
     </row>
     <row r="296" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K296" s="53"/>
+      <c r="K296" s="17"/>
     </row>
     <row r="297" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K297" s="53"/>
+      <c r="K297" s="17"/>
     </row>
     <row r="298" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K298" s="53"/>
+      <c r="K298" s="17"/>
     </row>
     <row r="299" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K299" s="53"/>
+      <c r="K299" s="17"/>
     </row>
     <row r="300" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K300" s="53"/>
+      <c r="K300" s="17"/>
     </row>
     <row r="301" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K301" s="53"/>
+      <c r="K301" s="17"/>
     </row>
     <row r="302" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K302" s="53"/>
+      <c r="K302" s="17"/>
     </row>
     <row r="303" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K303" s="53"/>
+      <c r="K303" s="17"/>
     </row>
     <row r="304" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K304" s="53"/>
+      <c r="K304" s="17"/>
     </row>
     <row r="305" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K305" s="53"/>
+      <c r="K305" s="17"/>
     </row>
     <row r="306" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K306" s="53"/>
+      <c r="K306" s="17"/>
     </row>
     <row r="307" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K307" s="53"/>
+      <c r="K307" s="17"/>
     </row>
     <row r="308" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K308" s="53"/>
+      <c r="K308" s="17"/>
     </row>
     <row r="309" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K309" s="53"/>
+      <c r="K309" s="17"/>
     </row>
     <row r="310" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K310" s="53"/>
+      <c r="K310" s="17"/>
     </row>
     <row r="311" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K311" s="53"/>
+      <c r="K311" s="17"/>
     </row>
     <row r="312" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K312" s="53"/>
+      <c r="K312" s="17"/>
     </row>
     <row r="313" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K313" s="53"/>
+      <c r="K313" s="17"/>
     </row>
     <row r="314" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K314" s="53"/>
+      <c r="K314" s="17"/>
     </row>
     <row r="315" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K315" s="53"/>
+      <c r="K315" s="17"/>
     </row>
     <row r="316" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K316" s="53"/>
+      <c r="K316" s="17"/>
     </row>
     <row r="317" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K317" s="53"/>
+      <c r="K317" s="17"/>
     </row>
     <row r="318" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K318" s="53"/>
+      <c r="K318" s="17"/>
     </row>
     <row r="319" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K319" s="53"/>
+      <c r="K319" s="17"/>
     </row>
     <row r="320" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K320" s="53"/>
+      <c r="K320" s="17"/>
     </row>
     <row r="321" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K321" s="53"/>
+      <c r="K321" s="17"/>
     </row>
     <row r="322" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K322" s="53"/>
+      <c r="K322" s="17"/>
     </row>
     <row r="323" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K323" s="53"/>
+      <c r="K323" s="17"/>
     </row>
     <row r="324" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K324" s="53"/>
+      <c r="K324" s="17"/>
     </row>
     <row r="325" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K325" s="53"/>
+      <c r="K325" s="17"/>
     </row>
     <row r="326" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K326" s="53"/>
+      <c r="K326" s="17"/>
     </row>
     <row r="327" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K327" s="53"/>
+      <c r="K327" s="17"/>
     </row>
     <row r="328" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K328" s="53"/>
+      <c r="K328" s="17"/>
     </row>
     <row r="329" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K329" s="53"/>
+      <c r="K329" s="17"/>
     </row>
     <row r="330" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K330" s="53"/>
+      <c r="K330" s="17"/>
     </row>
     <row r="331" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K331" s="53"/>
+      <c r="K331" s="17"/>
     </row>
     <row r="332" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K332" s="53"/>
+      <c r="K332" s="17"/>
     </row>
     <row r="333" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K333" s="53"/>
+      <c r="K333" s="17"/>
     </row>
     <row r="334" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K334" s="53"/>
+      <c r="K334" s="17"/>
     </row>
     <row r="335" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K335" s="53"/>
+      <c r="K335" s="17"/>
     </row>
     <row r="336" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K336" s="53"/>
+      <c r="K336" s="17"/>
     </row>
     <row r="337" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K337" s="53"/>
+      <c r="K337" s="17"/>
     </row>
     <row r="338" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K338" s="53"/>
+      <c r="K338" s="17"/>
     </row>
     <row r="339" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K339" s="53"/>
+      <c r="K339" s="17"/>
     </row>
     <row r="340" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K340" s="53"/>
+      <c r="K340" s="17"/>
     </row>
     <row r="341" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K341" s="53"/>
+      <c r="K341" s="17"/>
     </row>
     <row r="342" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K342" s="53"/>
+      <c r="K342" s="17"/>
     </row>
     <row r="343" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K343" s="53"/>
+      <c r="K343" s="17"/>
     </row>
     <row r="344" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K344" s="53"/>
+      <c r="K344" s="17"/>
     </row>
     <row r="345" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K345" s="53"/>
+      <c r="K345" s="17"/>
     </row>
     <row r="346" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K346" s="53"/>
+      <c r="K346" s="17"/>
     </row>
     <row r="347" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K347" s="53"/>
+      <c r="K347" s="17"/>
     </row>
     <row r="348" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K348" s="53"/>
+      <c r="K348" s="17"/>
     </row>
     <row r="349" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K349" s="53"/>
+      <c r="K349" s="17"/>
     </row>
     <row r="350" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K350" s="53"/>
+      <c r="K350" s="17"/>
     </row>
     <row r="351" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K351" s="53"/>
+      <c r="K351" s="17"/>
     </row>
     <row r="352" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K352" s="53"/>
+      <c r="K352" s="17"/>
     </row>
     <row r="353" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K353" s="53"/>
+      <c r="K353" s="17"/>
     </row>
     <row r="354" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K354" s="53"/>
+      <c r="K354" s="17"/>
     </row>
     <row r="355" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K355" s="53"/>
+      <c r="K355" s="17"/>
     </row>
     <row r="356" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K356" s="53"/>
+      <c r="K356" s="17"/>
     </row>
     <row r="357" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K357" s="53"/>
+      <c r="K357" s="17"/>
     </row>
     <row r="358" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K358" s="53"/>
+      <c r="K358" s="17"/>
     </row>
     <row r="359" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K359" s="53"/>
+      <c r="K359" s="17"/>
     </row>
     <row r="360" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K360" s="53"/>
+      <c r="K360" s="17"/>
     </row>
     <row r="361" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K361" s="53"/>
+      <c r="K361" s="17"/>
     </row>
     <row r="362" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K362" s="53"/>
+      <c r="K362" s="17"/>
     </row>
     <row r="363" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K363" s="53"/>
+      <c r="K363" s="17"/>
     </row>
     <row r="364" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K364" s="53"/>
+      <c r="K364" s="17"/>
     </row>
     <row r="365" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K365" s="53"/>
+      <c r="K365" s="17"/>
     </row>
     <row r="366" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K366" s="53"/>
+      <c r="K366" s="17"/>
     </row>
     <row r="367" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K367" s="53"/>
+      <c r="K367" s="17"/>
     </row>
     <row r="368" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K368" s="53"/>
+      <c r="K368" s="17"/>
     </row>
     <row r="369" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K369" s="53"/>
+      <c r="K369" s="17"/>
     </row>
     <row r="370" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K370" s="53"/>
+      <c r="K370" s="17"/>
     </row>
     <row r="371" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K371" s="53"/>
+      <c r="K371" s="17"/>
     </row>
     <row r="372" spans="11:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K372" s="54"/>
+      <c r="K372" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="D53:E57"/>
+    <mergeCell ref="D58:E73"/>
+    <mergeCell ref="D74:E77"/>
+    <mergeCell ref="A74:B77"/>
+    <mergeCell ref="A53:B57"/>
+    <mergeCell ref="A58:B73"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C58:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B8"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D17:E25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="A17:B25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D6:E8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A35:B43"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D35:E43"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:E46"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="F90:J90"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="F93:J93"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F96:J96"/>
+    <mergeCell ref="F97:J97"/>
+    <mergeCell ref="F98:J98"/>
+    <mergeCell ref="F99:J99"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="F108:J108"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="F111:J111"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="F114:J114"/>
+    <mergeCell ref="F115:J115"/>
+    <mergeCell ref="F116:J116"/>
+    <mergeCell ref="F117:J117"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="F119:J119"/>
+    <mergeCell ref="F120:J120"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="F123:J123"/>
+    <mergeCell ref="F124:J124"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="F126:J126"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="F128:J128"/>
+    <mergeCell ref="F129:J129"/>
+    <mergeCell ref="F130:J130"/>
+    <mergeCell ref="F131:J131"/>
+    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="F133:J133"/>
+    <mergeCell ref="F134:J134"/>
+    <mergeCell ref="F135:J135"/>
+    <mergeCell ref="F136:J136"/>
+    <mergeCell ref="F137:J137"/>
+    <mergeCell ref="F138:J138"/>
+    <mergeCell ref="F139:J139"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="F141:J141"/>
+    <mergeCell ref="F142:J142"/>
+    <mergeCell ref="F143:J143"/>
+    <mergeCell ref="F144:J144"/>
+    <mergeCell ref="F145:J145"/>
+    <mergeCell ref="F146:J146"/>
+    <mergeCell ref="F147:J147"/>
+    <mergeCell ref="F148:J148"/>
+    <mergeCell ref="F149:J149"/>
+    <mergeCell ref="F150:J150"/>
+    <mergeCell ref="F151:J151"/>
+    <mergeCell ref="F152:J152"/>
+    <mergeCell ref="F153:J153"/>
+    <mergeCell ref="F154:J154"/>
+    <mergeCell ref="F155:J155"/>
+    <mergeCell ref="F156:J156"/>
+    <mergeCell ref="F157:J157"/>
+    <mergeCell ref="F158:J158"/>
+    <mergeCell ref="F159:J159"/>
+    <mergeCell ref="F160:J160"/>
+    <mergeCell ref="F161:J161"/>
+    <mergeCell ref="F162:J162"/>
+    <mergeCell ref="F163:J163"/>
+    <mergeCell ref="F164:J164"/>
+    <mergeCell ref="F165:J165"/>
+    <mergeCell ref="F166:J166"/>
+    <mergeCell ref="F167:J167"/>
+    <mergeCell ref="F168:J168"/>
+    <mergeCell ref="F169:J169"/>
+    <mergeCell ref="F170:J170"/>
+    <mergeCell ref="F171:J171"/>
+    <mergeCell ref="F172:J172"/>
+    <mergeCell ref="F173:J173"/>
+    <mergeCell ref="F174:J174"/>
+    <mergeCell ref="F175:J175"/>
+    <mergeCell ref="F176:J176"/>
+    <mergeCell ref="F177:J177"/>
+    <mergeCell ref="F178:J178"/>
+    <mergeCell ref="F179:J179"/>
+    <mergeCell ref="F180:J180"/>
+    <mergeCell ref="F181:J181"/>
+    <mergeCell ref="F182:J182"/>
+    <mergeCell ref="F200:J200"/>
+    <mergeCell ref="F183:J183"/>
+    <mergeCell ref="F184:J184"/>
+    <mergeCell ref="F185:J185"/>
+    <mergeCell ref="F186:J186"/>
+    <mergeCell ref="F187:J187"/>
+    <mergeCell ref="F188:J188"/>
+    <mergeCell ref="F189:J189"/>
+    <mergeCell ref="F190:J190"/>
+    <mergeCell ref="F191:J191"/>
     <mergeCell ref="F210:J210"/>
     <mergeCell ref="F211:J211"/>
     <mergeCell ref="F212:J212"/>
@@ -13831,232 +14066,6 @@
     <mergeCell ref="F197:J197"/>
     <mergeCell ref="F198:J198"/>
     <mergeCell ref="F199:J199"/>
-    <mergeCell ref="F200:J200"/>
-    <mergeCell ref="F183:J183"/>
-    <mergeCell ref="F184:J184"/>
-    <mergeCell ref="F185:J185"/>
-    <mergeCell ref="F186:J186"/>
-    <mergeCell ref="F187:J187"/>
-    <mergeCell ref="F188:J188"/>
-    <mergeCell ref="F189:J189"/>
-    <mergeCell ref="F190:J190"/>
-    <mergeCell ref="F191:J191"/>
-    <mergeCell ref="F174:J174"/>
-    <mergeCell ref="F175:J175"/>
-    <mergeCell ref="F176:J176"/>
-    <mergeCell ref="F177:J177"/>
-    <mergeCell ref="F178:J178"/>
-    <mergeCell ref="F179:J179"/>
-    <mergeCell ref="F180:J180"/>
-    <mergeCell ref="F181:J181"/>
-    <mergeCell ref="F182:J182"/>
-    <mergeCell ref="F165:J165"/>
-    <mergeCell ref="F166:J166"/>
-    <mergeCell ref="F167:J167"/>
-    <mergeCell ref="F168:J168"/>
-    <mergeCell ref="F169:J169"/>
-    <mergeCell ref="F170:J170"/>
-    <mergeCell ref="F171:J171"/>
-    <mergeCell ref="F172:J172"/>
-    <mergeCell ref="F173:J173"/>
-    <mergeCell ref="F156:J156"/>
-    <mergeCell ref="F157:J157"/>
-    <mergeCell ref="F158:J158"/>
-    <mergeCell ref="F159:J159"/>
-    <mergeCell ref="F160:J160"/>
-    <mergeCell ref="F161:J161"/>
-    <mergeCell ref="F162:J162"/>
-    <mergeCell ref="F163:J163"/>
-    <mergeCell ref="F164:J164"/>
-    <mergeCell ref="F147:J147"/>
-    <mergeCell ref="F148:J148"/>
-    <mergeCell ref="F149:J149"/>
-    <mergeCell ref="F150:J150"/>
-    <mergeCell ref="F151:J151"/>
-    <mergeCell ref="F152:J152"/>
-    <mergeCell ref="F153:J153"/>
-    <mergeCell ref="F154:J154"/>
-    <mergeCell ref="F155:J155"/>
-    <mergeCell ref="F138:J138"/>
-    <mergeCell ref="F139:J139"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="F141:J141"/>
-    <mergeCell ref="F142:J142"/>
-    <mergeCell ref="F143:J143"/>
-    <mergeCell ref="F144:J144"/>
-    <mergeCell ref="F145:J145"/>
-    <mergeCell ref="F146:J146"/>
-    <mergeCell ref="F129:J129"/>
-    <mergeCell ref="F130:J130"/>
-    <mergeCell ref="F131:J131"/>
-    <mergeCell ref="F132:J132"/>
-    <mergeCell ref="F133:J133"/>
-    <mergeCell ref="F134:J134"/>
-    <mergeCell ref="F135:J135"/>
-    <mergeCell ref="F136:J136"/>
-    <mergeCell ref="F137:J137"/>
-    <mergeCell ref="F120:J120"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="F123:J123"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="F126:J126"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="F128:J128"/>
-    <mergeCell ref="F111:J111"/>
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="F114:J114"/>
-    <mergeCell ref="F115:J115"/>
-    <mergeCell ref="F116:J116"/>
-    <mergeCell ref="F117:J117"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="F119:J119"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="F107:J107"/>
-    <mergeCell ref="F108:J108"/>
-    <mergeCell ref="F109:J109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="A214:J214"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="F90:J90"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="F93:J93"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F96:J96"/>
-    <mergeCell ref="F97:J97"/>
-    <mergeCell ref="F98:J98"/>
-    <mergeCell ref="F99:J99"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:E46"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A35:B43"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="D35:E43"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A26:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D6:E8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B8"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D17:E25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="A17:B25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="D53:E57"/>
-    <mergeCell ref="D58:E73"/>
-    <mergeCell ref="D74:E77"/>
-    <mergeCell ref="A74:B77"/>
-    <mergeCell ref="A53:B57"/>
-    <mergeCell ref="A58:B73"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C58:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
